--- a/WorkTracker.xlsx
+++ b/WorkTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gazda\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD88BF2-FF6A-45B2-B5B9-45447BB892D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCF996B-3C36-473A-8752-4CBB3E315452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,63 +32,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="23">
-  <si>
-    <t>Vrijdag</t>
-  </si>
-  <si>
-    <t>Zaterdag</t>
-  </si>
-  <si>
-    <t>Zondag</t>
-  </si>
-  <si>
-    <t>Maandag</t>
-  </si>
-  <si>
-    <t>Dinsdag</t>
-  </si>
-  <si>
-    <t>Woensdag</t>
-  </si>
-  <si>
-    <t>Donderdag</t>
-  </si>
-  <si>
-    <t>Nog te doen</t>
-  </si>
-  <si>
-    <t>% gedaan</t>
-  </si>
-  <si>
-    <t>van</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>X gedaan</t>
-  </si>
-  <si>
-    <t>Simon vakantie</t>
-  </si>
-  <si>
-    <t>evt. uitval door (comment)</t>
-  </si>
-  <si>
-    <t>Total pages:</t>
   </si>
   <si>
     <t>Workday</t>
   </si>
   <si>
     <t>Target date:</t>
-  </si>
-  <si>
-    <t>Werkdagen te gaan</t>
-  </si>
-  <si>
-    <t>Uitvaldag?</t>
   </si>
   <si>
     <t>Password:</t>
@@ -103,6 +55,30 @@
   <si>
     <t>Ending Page
 of the day</t>
+  </si>
+  <si>
+    <t>Resting day?</t>
+  </si>
+  <si>
+    <t>X units completed</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>% done</t>
+  </si>
+  <si>
+    <t>Units still left</t>
+  </si>
+  <si>
+    <t>Workdays left</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Total units:</t>
   </si>
 </sst>
 </file>
@@ -328,12 +304,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -362,6 +332,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -650,111 +626,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD138"/>
+  <dimension ref="A1:XFC138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="L100" sqref="L100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="11" customWidth="1"/>
-    <col min="3" max="4" width="10.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="29" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="29" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="20"/>
+    <col min="7" max="7" width="12" style="20" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" style="5"/>
     <col min="10" max="10" width="9.140625" style="3"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="24"/>
-    <col min="18" max="18" width="11.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="20"/>
+    <col min="15" max="16" width="9.140625" style="24"/>
+    <col min="17" max="17" width="11.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="53" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="53" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="28" t="s">
-        <v>18</v>
+      <c r="C1" s="64" t="s">
+        <v>7</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L1" s="2" t="str">
-        <f>_xlfn.CONCAT("hierna te doen per dag om ",TEXT(U1,"dd/mm/yyyy"), " deadline te halen")</f>
-        <v>hierna te doen per dag om 26/02/2020 deadline te halen</v>
+        <f>_xlfn.CONCAT("Units left to reach target of ",TEXT(T1,"dd/mm/yyyy"))</f>
+        <v>Units left to reach target of 26/02/2020</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="O1" s="24"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="36" t="s">
+      <c r="Q1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="53">
-        <f>238*1.4</f>
-        <v>333.2</v>
-      </c>
-      <c r="T1" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="56">
+      <c r="R1" s="53">
+        <v>500</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="54">
         <f>$A$104</f>
         <v>43887</v>
       </c>
-      <c r="V1" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="56"/>
+      <c r="U1" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" s="54"/>
     </row>
-    <row r="2" spans="1:25" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>43787</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>3</v>
+      <c r="B2" s="11" t="str">
+        <f>TEXT(A2,"dddd")</f>
+        <v>Monday</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="30" t="str">
@@ -769,42 +742,42 @@
       </c>
       <c r="H2" s="41"/>
       <c r="I2" s="1">
-        <f t="shared" ref="I2:I33" si="0">$S$1</f>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J2" s="42">
-        <f>G2/$S$1</f>
+        <f>G2/$R$1</f>
         <v>0</v>
       </c>
       <c r="K2" s="6">
         <f>I2-G2</f>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L2" s="43">
         <f>K2/M2</f>
-        <v>4.4426666666666668</v>
+        <v>4.8543689320388346</v>
       </c>
       <c r="M2" s="1">
         <f>COUNTIF(D:D,"Y")</f>
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="N2" s="19"/>
-      <c r="O2" s="20"/>
+      <c r="O2" s="24"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2"/>
+      <c r="Q2"/>
+      <c r="R2" s="24"/>
       <c r="S2" s="24"/>
       <c r="T2" s="24"/>
       <c r="U2" s="24"/>
       <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
     </row>
-    <row r="3" spans="1:25" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>43788</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>4</v>
+      <c r="B3" s="11" t="str">
+        <f t="shared" ref="B3:B66" si="0">TEXT(A3,"dddd")</f>
+        <v>Tuesday</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="30" t="str">
@@ -819,42 +792,42 @@
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J3" s="42">
-        <f>G3/$S$1</f>
+        <f>G3/$R$1</f>
         <v>0</v>
       </c>
       <c r="K3" s="6">
         <f>K2-G3</f>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L3" s="44">
         <f>K2/M3</f>
-        <v>4.5027027027027025</v>
+        <v>4.9019607843137258</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:M34" si="3">IF(D3="Y",M2-1,M2)</f>
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="N3" s="19"/>
-      <c r="O3" s="20"/>
+      <c r="O3" s="24"/>
       <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3"/>
+      <c r="Q3"/>
+      <c r="R3" s="24"/>
       <c r="S3" s="24"/>
       <c r="T3" s="24"/>
       <c r="U3" s="24"/>
       <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
     </row>
-    <row r="4" spans="1:25" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>43789</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>5</v>
+      <c r="B4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Wednesday</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="30" t="str">
@@ -869,42 +842,42 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J4" s="42">
-        <f t="shared" ref="J4:J67" si="4">G4/$S$1</f>
+        <f t="shared" ref="J4:J67" si="4">G4/$R$1</f>
         <v>0</v>
       </c>
       <c r="K4" s="6">
         <f>K3-G4</f>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L4" s="44">
         <f t="shared" ref="L4:L67" si="5">K3/M4</f>
-        <v>4.5643835616438357</v>
+        <v>4.9504950495049505</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
+      <c r="O4" s="24"/>
       <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4"/>
+      <c r="Q4"/>
+      <c r="R4" s="24"/>
       <c r="S4" s="24"/>
       <c r="T4" s="24"/>
       <c r="U4" s="24"/>
       <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
     </row>
-    <row r="5" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>43788</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>6</v>
+      <c r="B5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="30" t="str">
@@ -919,8 +892,8 @@
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J5" s="42">
         <f t="shared" si="4"/>
@@ -928,33 +901,33 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ref="K5:K68" si="6">K4-G5</f>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L5" s="44">
         <f t="shared" si="5"/>
-        <v>4.6277777777777773</v>
+        <v>5</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="N5" s="5"/>
-      <c r="O5" s="20"/>
+      <c r="O5" s="24"/>
       <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5"/>
+      <c r="Q5"/>
+      <c r="R5" s="24"/>
       <c r="S5" s="24"/>
       <c r="T5" s="24"/>
       <c r="U5" s="24"/>
       <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
     </row>
-    <row r="6" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>43789</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>0</v>
+      <c r="B6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Wednesday</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="30" t="str">
@@ -969,8 +942,8 @@
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J6" s="42">
         <f t="shared" si="4"/>
@@ -978,38 +951,38 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L6" s="44">
         <f t="shared" si="5"/>
-        <v>4.6929577464788732</v>
+        <v>5.0505050505050502</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="N6" s="5"/>
-      <c r="O6" s="20"/>
+      <c r="O6" s="24"/>
       <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6"/>
+      <c r="Q6"/>
+      <c r="R6" s="24"/>
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
       <c r="U6" s="24"/>
       <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
     </row>
-    <row r="7" spans="1:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>43790</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>1</v>
+      <c r="B7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Thursday</v>
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
@@ -1019,8 +992,8 @@
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J7" s="45">
         <f t="shared" si="4"/>
@@ -1028,18 +1001,18 @@
       </c>
       <c r="K7" s="9">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L7" s="46">
         <f t="shared" si="5"/>
-        <v>4.6929577464788732</v>
+        <v>5.1020408163265305</v>
       </c>
       <c r="M7" s="9">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="N7" s="8"/>
-      <c r="O7" s="21"/>
+      <c r="O7" s="27"/>
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
@@ -1047,19 +1020,19 @@
       <c r="T7" s="27"/>
       <c r="U7" s="27"/>
       <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
     </row>
-    <row r="8" spans="1:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35">
         <v>43791</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>2</v>
+      <c r="B8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
@@ -1069,8 +1042,8 @@
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J8" s="45">
         <f t="shared" si="4"/>
@@ -1078,18 +1051,18 @@
       </c>
       <c r="K8" s="9">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L8" s="46">
         <f t="shared" si="5"/>
-        <v>4.6929577464788732</v>
+        <v>5.1546391752577323</v>
       </c>
       <c r="M8" s="9">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="N8" s="8"/>
-      <c r="O8" s="21"/>
+      <c r="O8" s="27"/>
       <c r="P8" s="27"/>
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
@@ -1097,14 +1070,14 @@
       <c r="T8" s="27"/>
       <c r="U8" s="27"/>
       <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
     </row>
-    <row r="9" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>43792</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>3</v>
+      <c r="B9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="30" t="str">
@@ -1119,8 +1092,8 @@
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J9" s="42">
         <f t="shared" si="4"/>
@@ -1128,18 +1101,18 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L9" s="44">
         <f t="shared" si="5"/>
-        <v>4.76</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="M9" s="6">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="N9" s="5"/>
-      <c r="O9" s="20"/>
+      <c r="O9" s="24"/>
       <c r="P9" s="24"/>
       <c r="Q9" s="24"/>
       <c r="R9" s="24"/>
@@ -1147,14 +1120,14 @@
       <c r="T9" s="24"/>
       <c r="U9" s="24"/>
       <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
     </row>
-    <row r="10" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>43793</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>4</v>
+      <c r="B10" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="30" t="str">
@@ -1169,8 +1142,8 @@
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J10" s="42">
         <f t="shared" si="4"/>
@@ -1178,18 +1151,18 @@
       </c>
       <c r="K10" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L10" s="44">
         <f t="shared" si="5"/>
-        <v>4.8289855072463768</v>
+        <v>5.2631578947368425</v>
       </c>
       <c r="M10" s="6">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="N10" s="5"/>
-      <c r="O10" s="20"/>
+      <c r="O10" s="24"/>
       <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
@@ -1197,14 +1170,14 @@
       <c r="T10" s="24"/>
       <c r="U10" s="24"/>
       <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
     </row>
-    <row r="11" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>43794</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>5</v>
+      <c r="B11" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="30" t="str">
@@ -1219,8 +1192,8 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J11" s="42">
         <f t="shared" si="4"/>
@@ -1228,18 +1201,18 @@
       </c>
       <c r="K11" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L11" s="44">
         <f t="shared" si="5"/>
-        <v>4.8999999999999995</v>
+        <v>5.3191489361702127</v>
       </c>
       <c r="M11" s="6">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="N11" s="5"/>
-      <c r="O11" s="20"/>
+      <c r="O11" s="24"/>
       <c r="P11" s="24"/>
       <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
@@ -1247,14 +1220,14 @@
       <c r="T11" s="24"/>
       <c r="U11" s="24"/>
       <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
     </row>
-    <row r="12" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>43795</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>6</v>
+      <c r="B12" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="30" t="str">
@@ -1269,8 +1242,8 @@
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J12" s="42">
         <f t="shared" si="4"/>
@@ -1278,18 +1251,18 @@
       </c>
       <c r="K12" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L12" s="44">
         <f t="shared" si="5"/>
-        <v>4.973134328358209</v>
+        <v>5.376344086021505</v>
       </c>
       <c r="M12" s="6">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="N12" s="5"/>
-      <c r="O12" s="20"/>
+      <c r="O12" s="24"/>
       <c r="P12" s="24"/>
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
@@ -1297,14 +1270,14 @@
       <c r="T12" s="24"/>
       <c r="U12" s="24"/>
       <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
     </row>
-    <row r="13" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>43796</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>0</v>
+      <c r="B13" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Wednesday</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="30" t="str">
@@ -1319,8 +1292,8 @@
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J13" s="42">
         <f t="shared" si="4"/>
@@ -1328,18 +1301,18 @@
       </c>
       <c r="K13" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L13" s="44">
         <f t="shared" si="5"/>
-        <v>5.0484848484848479</v>
+        <v>5.4347826086956523</v>
       </c>
       <c r="M13" s="6">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="N13" s="5"/>
-      <c r="O13" s="20"/>
+      <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
       <c r="R13" s="24"/>
@@ -1347,19 +1320,19 @@
       <c r="T13" s="24"/>
       <c r="U13" s="24"/>
       <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
     </row>
-    <row r="14" spans="1:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <v>43797</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>1</v>
+      <c r="B14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Thursday</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
@@ -1369,8 +1342,8 @@
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J14" s="45">
         <f t="shared" si="4"/>
@@ -1378,18 +1351,18 @@
       </c>
       <c r="K14" s="9">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L14" s="46">
         <f t="shared" si="5"/>
-        <v>5.0484848484848479</v>
+        <v>5.4945054945054945</v>
       </c>
       <c r="M14" s="9">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
+      <c r="O14" s="27"/>
       <c r="P14" s="27"/>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
@@ -1397,19 +1370,19 @@
       <c r="T14" s="27"/>
       <c r="U14" s="27"/>
       <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
     </row>
-    <row r="15" spans="1:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>43798</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>2</v>
+      <c r="B15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
@@ -1419,8 +1392,8 @@
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J15" s="45">
         <f t="shared" si="4"/>
@@ -1428,18 +1401,18 @@
       </c>
       <c r="K15" s="9">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L15" s="46">
         <f t="shared" si="5"/>
-        <v>5.0484848484848479</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="M15" s="9">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="N15" s="8"/>
-      <c r="O15" s="21"/>
+      <c r="O15" s="27"/>
       <c r="P15" s="27"/>
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
@@ -1447,14 +1420,14 @@
       <c r="T15" s="27"/>
       <c r="U15" s="27"/>
       <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
     </row>
-    <row r="16" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>43799</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>3</v>
+      <c r="B16" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="30" t="str">
@@ -1469,8 +1442,8 @@
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J16" s="42">
         <f t="shared" si="4"/>
@@ -1478,17 +1451,18 @@
       </c>
       <c r="K16" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L16" s="44">
         <f t="shared" si="5"/>
-        <v>5.1261538461538461</v>
+        <v>5.617977528089888</v>
       </c>
       <c r="M16" s="6">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="N16" s="5"/>
+      <c r="O16" s="24"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
@@ -1496,14 +1470,14 @@
       <c r="T16" s="24"/>
       <c r="U16" s="24"/>
       <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
     </row>
-    <row r="17" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>43800</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>4</v>
+      <c r="B17" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="30" t="str">
@@ -1518,8 +1492,8 @@
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J17" s="42">
         <f t="shared" si="4"/>
@@ -1527,17 +1501,18 @@
       </c>
       <c r="K17" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L17" s="44">
         <f t="shared" si="5"/>
-        <v>5.2062499999999998</v>
+        <v>5.6818181818181817</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="N17" s="5"/>
+      <c r="O17" s="24"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
       <c r="R17" s="24"/>
@@ -1545,14 +1520,14 @@
       <c r="T17" s="24"/>
       <c r="U17" s="24"/>
       <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
     </row>
-    <row r="18" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>43801</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>5</v>
+      <c r="B18" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="30" t="str">
@@ -1567,8 +1542,8 @@
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J18" s="42">
         <f t="shared" si="4"/>
@@ -1576,17 +1551,18 @@
       </c>
       <c r="K18" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L18" s="44">
         <f t="shared" si="5"/>
-        <v>5.2888888888888888</v>
+        <v>5.7471264367816088</v>
       </c>
       <c r="M18" s="6">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="N18" s="5"/>
+      <c r="O18" s="24"/>
       <c r="P18" s="24"/>
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
@@ -1594,14 +1570,14 @@
       <c r="T18" s="24"/>
       <c r="U18" s="24"/>
       <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
     </row>
-    <row r="19" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>43802</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>6</v>
+      <c r="B19" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="30" t="str">
@@ -1616,8 +1592,8 @@
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J19" s="42">
         <f t="shared" si="4"/>
@@ -1625,17 +1601,18 @@
       </c>
       <c r="K19" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L19" s="44">
         <f t="shared" si="5"/>
-        <v>5.3741935483870966</v>
+        <v>5.8139534883720927</v>
       </c>
       <c r="M19" s="6">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="N19" s="5"/>
+      <c r="O19" s="24"/>
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
       <c r="R19" s="24"/>
@@ -1643,14 +1620,14 @@
       <c r="T19" s="24"/>
       <c r="U19" s="24"/>
       <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
     </row>
-    <row r="20" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>43803</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>0</v>
+      <c r="B20" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Wednesday</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="30" t="str">
@@ -1665,8 +1642,8 @@
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J20" s="42">
         <f t="shared" si="4"/>
@@ -1674,17 +1651,18 @@
       </c>
       <c r="K20" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L20" s="44">
         <f t="shared" si="5"/>
-        <v>5.4622950819672127</v>
+        <v>5.882352941176471</v>
       </c>
       <c r="M20" s="6">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="N20" s="5"/>
+      <c r="O20" s="24"/>
       <c r="P20" s="24"/>
       <c r="Q20" s="24"/>
       <c r="R20" s="24"/>
@@ -1692,19 +1670,19 @@
       <c r="T20" s="24"/>
       <c r="U20" s="24"/>
       <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
     </row>
-    <row r="21" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35">
         <v>43804</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>1</v>
+      <c r="B21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Thursday</v>
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
@@ -1714,8 +1692,8 @@
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J21" s="45">
         <f t="shared" si="4"/>
@@ -1723,18 +1701,18 @@
       </c>
       <c r="K21" s="9">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L21" s="46">
         <f t="shared" si="5"/>
-        <v>5.4622950819672127</v>
+        <v>5.9523809523809526</v>
       </c>
       <c r="M21" s="47">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="N21" s="8"/>
-      <c r="O21" s="21"/>
+      <c r="O21" s="27"/>
       <c r="P21" s="27"/>
       <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
@@ -1742,19 +1720,19 @@
       <c r="T21" s="27"/>
       <c r="U21" s="27"/>
       <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
     </row>
-    <row r="22" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35">
         <v>43805</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>2</v>
+      <c r="B22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
@@ -1764,8 +1742,8 @@
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J22" s="45">
         <f t="shared" si="4"/>
@@ -1773,18 +1751,18 @@
       </c>
       <c r="K22" s="9">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L22" s="46">
         <f t="shared" si="5"/>
-        <v>5.4622950819672127</v>
+        <v>6.024096385542169</v>
       </c>
       <c r="M22" s="9">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="N22" s="8"/>
-      <c r="O22" s="21"/>
+      <c r="O22" s="27"/>
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
       <c r="R22" s="27"/>
@@ -1792,14 +1770,14 @@
       <c r="T22" s="27"/>
       <c r="U22" s="27"/>
       <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
     </row>
-    <row r="23" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>43806</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>3</v>
+      <c r="B23" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
       </c>
       <c r="C23" s="38"/>
       <c r="D23" s="30" t="str">
@@ -1814,8 +1792,8 @@
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J23" s="42">
         <f t="shared" si="4"/>
@@ -1823,17 +1801,18 @@
       </c>
       <c r="K23" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L23" s="44">
         <f t="shared" si="5"/>
-        <v>5.5533333333333328</v>
+        <v>6.0975609756097562</v>
       </c>
       <c r="M23" s="6">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="N23" s="5"/>
+      <c r="O23" s="24"/>
       <c r="P23" s="24"/>
       <c r="Q23" s="24"/>
       <c r="R23" s="24"/>
@@ -1841,14 +1820,14 @@
       <c r="T23" s="24"/>
       <c r="U23" s="24"/>
       <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
     </row>
-    <row r="24" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>43807</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>4</v>
+      <c r="B24" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="30" t="str">
@@ -1863,8 +1842,8 @@
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J24" s="42">
         <f t="shared" si="4"/>
@@ -1872,17 +1851,18 @@
       </c>
       <c r="K24" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L24" s="44">
         <f t="shared" si="5"/>
-        <v>5.6474576271186443</v>
+        <v>6.1728395061728394</v>
       </c>
       <c r="M24" s="6">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="N24" s="5"/>
+      <c r="O24" s="24"/>
       <c r="P24" s="24"/>
       <c r="Q24" s="24"/>
       <c r="R24" s="24"/>
@@ -1890,14 +1870,14 @@
       <c r="T24" s="24"/>
       <c r="U24" s="24"/>
       <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
     </row>
-    <row r="25" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>43808</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>5</v>
+      <c r="B25" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="30" t="str">
@@ -1912,8 +1892,8 @@
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J25" s="42">
         <f t="shared" si="4"/>
@@ -1921,17 +1901,18 @@
       </c>
       <c r="K25" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L25" s="44">
         <f t="shared" si="5"/>
-        <v>5.7448275862068963</v>
+        <v>6.25</v>
       </c>
       <c r="M25" s="6">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="N25" s="5"/>
+      <c r="O25" s="24"/>
       <c r="P25" s="24"/>
       <c r="Q25" s="24"/>
       <c r="R25" s="24"/>
@@ -1939,14 +1920,14 @@
       <c r="T25" s="24"/>
       <c r="U25" s="24"/>
       <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
     </row>
-    <row r="26" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>43809</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>6</v>
+      <c r="B26" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="30" t="str">
@@ -1961,8 +1942,8 @@
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J26" s="42">
         <f t="shared" si="4"/>
@@ -1970,17 +1951,18 @@
       </c>
       <c r="K26" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L26" s="44">
         <f t="shared" si="5"/>
-        <v>5.8456140350877188</v>
+        <v>6.3291139240506329</v>
       </c>
       <c r="M26" s="6">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="N26" s="5"/>
+      <c r="O26" s="24"/>
       <c r="P26" s="24"/>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
@@ -1988,14 +1970,14 @@
       <c r="T26" s="24"/>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
     </row>
-    <row r="27" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>43810</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>0</v>
+      <c r="B27" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Wednesday</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="30" t="str">
@@ -2010,8 +1992,8 @@
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J27" s="42">
         <f t="shared" si="4"/>
@@ -2019,17 +2001,18 @@
       </c>
       <c r="K27" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L27" s="44">
         <f t="shared" si="5"/>
-        <v>5.95</v>
+        <v>6.4102564102564106</v>
       </c>
       <c r="M27" s="6">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="N27" s="5"/>
+      <c r="O27" s="24"/>
       <c r="P27" s="24"/>
       <c r="Q27" s="24"/>
       <c r="R27" s="24"/>
@@ -2037,19 +2020,19 @@
       <c r="T27" s="24"/>
       <c r="U27" s="24"/>
       <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
     </row>
-    <row r="28" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35">
         <v>43811</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>1</v>
+      <c r="B28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Thursday</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
@@ -2059,8 +2042,8 @@
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J28" s="45">
         <f t="shared" si="4"/>
@@ -2068,18 +2051,18 @@
       </c>
       <c r="K28" s="9">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L28" s="46">
         <f t="shared" si="5"/>
-        <v>5.95</v>
+        <v>6.4935064935064934</v>
       </c>
       <c r="M28" s="9">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="N28" s="8"/>
-      <c r="O28" s="21"/>
+      <c r="O28" s="27"/>
       <c r="P28" s="27"/>
       <c r="Q28" s="27"/>
       <c r="R28" s="27"/>
@@ -2087,19 +2070,19 @@
       <c r="T28" s="27"/>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
     </row>
-    <row r="29" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
         <v>43812</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>2</v>
+      <c r="B29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
       </c>
       <c r="C29" s="39"/>
       <c r="D29" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="39"/>
@@ -2109,8 +2092,8 @@
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J29" s="45">
         <f t="shared" si="4"/>
@@ -2118,18 +2101,18 @@
       </c>
       <c r="K29" s="9">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L29" s="46">
         <f t="shared" si="5"/>
-        <v>5.95</v>
+        <v>6.5789473684210522</v>
       </c>
       <c r="M29" s="9">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="N29" s="8"/>
-      <c r="O29" s="21"/>
+      <c r="O29" s="27"/>
       <c r="P29" s="27"/>
       <c r="Q29" s="27"/>
       <c r="R29" s="27"/>
@@ -2137,14 +2120,14 @@
       <c r="T29" s="27"/>
       <c r="U29" s="27"/>
       <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
     </row>
-    <row r="30" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>43813</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>3</v>
+      <c r="B30" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="30" t="str">
@@ -2159,8 +2142,8 @@
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J30" s="42">
         <f t="shared" si="4"/>
@@ -2168,18 +2151,18 @@
       </c>
       <c r="K30" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L30" s="44">
         <f t="shared" si="5"/>
-        <v>6.0581818181818177</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="M30" s="6">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N30" s="5"/>
-      <c r="O30" s="20"/>
+      <c r="O30" s="24"/>
       <c r="P30" s="24"/>
       <c r="Q30" s="24"/>
       <c r="R30" s="24"/>
@@ -2187,14 +2170,14 @@
       <c r="T30" s="24"/>
       <c r="U30" s="24"/>
       <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
     </row>
-    <row r="31" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>43814</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>4</v>
+      <c r="B31" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="30" t="str">
@@ -2209,8 +2192,8 @@
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J31" s="42">
         <f t="shared" si="4"/>
@@ -2218,18 +2201,18 @@
       </c>
       <c r="K31" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L31" s="44">
         <f t="shared" si="5"/>
-        <v>6.1703703703703701</v>
+        <v>6.756756756756757</v>
       </c>
       <c r="M31" s="6">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="N31" s="5"/>
-      <c r="O31" s="20"/>
+      <c r="O31" s="24"/>
       <c r="P31" s="24"/>
       <c r="Q31" s="24"/>
       <c r="R31" s="24"/>
@@ -2237,14 +2220,14 @@
       <c r="T31" s="24"/>
       <c r="U31" s="24"/>
       <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
     </row>
-    <row r="32" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>43815</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>5</v>
+      <c r="B32" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="30" t="str">
@@ -2259,8 +2242,8 @@
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J32" s="42">
         <f t="shared" si="4"/>
@@ -2268,18 +2251,18 @@
       </c>
       <c r="K32" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L32" s="44">
         <f t="shared" si="5"/>
-        <v>6.2867924528301886</v>
+        <v>6.8493150684931505</v>
       </c>
       <c r="M32" s="6">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="N32" s="5"/>
-      <c r="O32" s="20"/>
+      <c r="O32" s="24"/>
       <c r="P32" s="24"/>
       <c r="Q32" s="24"/>
       <c r="R32" s="24"/>
@@ -2287,14 +2270,14 @@
       <c r="T32" s="24"/>
       <c r="U32" s="24"/>
       <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
     </row>
-    <row r="33" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>43816</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>6</v>
+      <c r="B33" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
       </c>
       <c r="C33" s="38"/>
       <c r="D33" s="30" t="str">
@@ -2309,8 +2292,8 @@
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6">
-        <f t="shared" si="0"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J33" s="42">
         <f t="shared" si="4"/>
@@ -2318,18 +2301,18 @@
       </c>
       <c r="K33" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L33" s="44">
         <f t="shared" si="5"/>
-        <v>6.4076923076923071</v>
+        <v>6.9444444444444446</v>
       </c>
       <c r="M33" s="6">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="N33" s="5"/>
-      <c r="O33" s="20"/>
+      <c r="O33" s="24"/>
       <c r="P33" s="24"/>
       <c r="Q33" s="24"/>
       <c r="R33" s="24"/>
@@ -2337,14 +2320,14 @@
       <c r="T33" s="24"/>
       <c r="U33" s="24"/>
       <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
     </row>
-    <row r="34" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>43817</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>0</v>
+      <c r="B34" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Wednesday</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="30" t="str">
@@ -2359,8 +2342,8 @@
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6">
-        <f t="shared" ref="I34:I65" si="7">$S$1</f>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J34" s="42">
         <f t="shared" si="4"/>
@@ -2368,18 +2351,18 @@
       </c>
       <c r="K34" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L34" s="44">
         <f t="shared" si="5"/>
-        <v>6.5333333333333332</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="M34" s="6">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N34" s="5"/>
-      <c r="O34" s="20"/>
+      <c r="O34" s="24"/>
       <c r="P34" s="24"/>
       <c r="Q34" s="24"/>
       <c r="R34" s="24"/>
@@ -2387,19 +2370,19 @@
       <c r="T34" s="24"/>
       <c r="U34" s="24"/>
       <c r="V34" s="24"/>
-      <c r="W34" s="24"/>
     </row>
-    <row r="35" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
         <v>43818</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>1</v>
+      <c r="B35" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Thursday</v>
       </c>
       <c r="C35" s="39"/>
       <c r="D35" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E35" s="39"/>
       <c r="F35" s="39"/>
@@ -2409,8 +2392,8 @@
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J35" s="45">
         <f t="shared" si="4"/>
@@ -2418,18 +2401,18 @@
       </c>
       <c r="K35" s="9">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L35" s="46">
         <f t="shared" si="5"/>
-        <v>6.5333333333333332</v>
+        <v>7.1428571428571432</v>
       </c>
       <c r="M35" s="9">
-        <f t="shared" ref="M35:M66" si="8">IF(D35="Y",M34-1,M34)</f>
-        <v>51</v>
+        <f t="shared" ref="M35:M66" si="7">IF(D35="Y",M34-1,M34)</f>
+        <v>70</v>
       </c>
       <c r="N35" s="8"/>
-      <c r="O35" s="21"/>
+      <c r="O35" s="27"/>
       <c r="P35" s="27"/>
       <c r="Q35" s="27"/>
       <c r="R35" s="27"/>
@@ -2437,19 +2420,19 @@
       <c r="T35" s="27"/>
       <c r="U35" s="27"/>
       <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
     </row>
-    <row r="36" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="35">
         <v>43819</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>2</v>
+      <c r="B36" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
       </c>
       <c r="C36" s="39"/>
       <c r="D36" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39"/>
@@ -2459,8 +2442,8 @@
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J36" s="45">
         <f t="shared" si="4"/>
@@ -2468,18 +2451,18 @@
       </c>
       <c r="K36" s="9">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L36" s="46">
         <f t="shared" si="5"/>
-        <v>6.5333333333333332</v>
+        <v>7.2463768115942031</v>
       </c>
       <c r="M36" s="9">
-        <f t="shared" si="8"/>
-        <v>51</v>
+        <f t="shared" si="7"/>
+        <v>69</v>
       </c>
       <c r="N36" s="8"/>
-      <c r="O36" s="21"/>
+      <c r="O36" s="27"/>
       <c r="P36" s="27"/>
       <c r="Q36" s="27"/>
       <c r="R36" s="27"/>
@@ -2487,14 +2470,14 @@
       <c r="T36" s="27"/>
       <c r="U36" s="27"/>
       <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
     </row>
-    <row r="37" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>43820</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>3</v>
+      <c r="B37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
       </c>
       <c r="C37" s="38"/>
       <c r="D37" s="30" t="str">
@@ -2509,8 +2492,8 @@
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J37" s="42">
         <f t="shared" si="4"/>
@@ -2518,18 +2501,18 @@
       </c>
       <c r="K37" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L37" s="44">
         <f t="shared" si="5"/>
-        <v>6.6639999999999997</v>
+        <v>7.3529411764705879</v>
       </c>
       <c r="M37" s="6">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <f t="shared" si="7"/>
+        <v>68</v>
       </c>
       <c r="N37" s="5"/>
-      <c r="O37" s="20"/>
+      <c r="O37" s="24"/>
       <c r="P37" s="24"/>
       <c r="Q37" s="24"/>
       <c r="R37" s="24"/>
@@ -2537,14 +2520,14 @@
       <c r="T37" s="24"/>
       <c r="U37" s="24"/>
       <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
     </row>
-    <row r="38" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>43821</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>4</v>
+      <c r="B38" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
       </c>
       <c r="C38" s="38"/>
       <c r="D38" s="30" t="str">
@@ -2559,8 +2542,8 @@
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J38" s="42">
         <f t="shared" si="4"/>
@@ -2568,18 +2551,18 @@
       </c>
       <c r="K38" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L38" s="44">
         <f t="shared" si="5"/>
-        <v>6.8</v>
+        <v>7.4626865671641793</v>
       </c>
       <c r="M38" s="6">
-        <f t="shared" si="8"/>
-        <v>49</v>
+        <f t="shared" si="7"/>
+        <v>67</v>
       </c>
       <c r="N38" s="5"/>
-      <c r="O38" s="20"/>
+      <c r="O38" s="24"/>
       <c r="P38" s="24"/>
       <c r="Q38" s="24"/>
       <c r="R38" s="24"/>
@@ -2587,14 +2570,14 @@
       <c r="T38" s="24"/>
       <c r="U38" s="24"/>
       <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
     </row>
-    <row r="39" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>43822</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>5</v>
+      <c r="B39" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
       </c>
       <c r="C39" s="38"/>
       <c r="D39" s="30" t="str">
@@ -2609,8 +2592,8 @@
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J39" s="42">
         <f t="shared" si="4"/>
@@ -2618,18 +2601,18 @@
       </c>
       <c r="K39" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L39" s="44">
         <f t="shared" si="5"/>
-        <v>6.9416666666666664</v>
+        <v>7.5757575757575761</v>
       </c>
       <c r="M39" s="6">
-        <f t="shared" si="8"/>
-        <v>48</v>
+        <f t="shared" si="7"/>
+        <v>66</v>
       </c>
       <c r="N39" s="5"/>
-      <c r="O39" s="20"/>
+      <c r="O39" s="24"/>
       <c r="P39" s="24"/>
       <c r="Q39" s="24"/>
       <c r="R39" s="24"/>
@@ -2637,14 +2620,14 @@
       <c r="T39" s="24"/>
       <c r="U39" s="24"/>
       <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
     </row>
-    <row r="40" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>43823</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>6</v>
+      <c r="B40" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
       </c>
       <c r="C40" s="38"/>
       <c r="D40" s="30" t="str">
@@ -2659,8 +2642,8 @@
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J40" s="42">
         <f t="shared" si="4"/>
@@ -2668,18 +2651,18 @@
       </c>
       <c r="K40" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L40" s="44">
         <f t="shared" si="5"/>
-        <v>7.0893617021276594</v>
+        <v>7.6923076923076925</v>
       </c>
       <c r="M40" s="6">
-        <f t="shared" si="8"/>
-        <v>47</v>
+        <f t="shared" si="7"/>
+        <v>65</v>
       </c>
       <c r="N40" s="5"/>
-      <c r="O40" s="20"/>
+      <c r="O40" s="24"/>
       <c r="P40" s="24"/>
       <c r="Q40" s="24"/>
       <c r="R40" s="24"/>
@@ -2687,14 +2670,14 @@
       <c r="T40" s="24"/>
       <c r="U40" s="24"/>
       <c r="V40" s="24"/>
-      <c r="W40" s="24"/>
     </row>
-    <row r="41" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>43824</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>0</v>
+      <c r="B41" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Wednesday</v>
       </c>
       <c r="C41" s="38"/>
       <c r="D41" s="30" t="str">
@@ -2709,8 +2692,8 @@
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J41" s="42">
         <f t="shared" si="4"/>
@@ -2718,18 +2701,18 @@
       </c>
       <c r="K41" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L41" s="44">
         <f t="shared" si="5"/>
-        <v>7.2434782608695647</v>
+        <v>7.8125</v>
       </c>
       <c r="M41" s="6">
-        <f t="shared" si="8"/>
-        <v>46</v>
+        <f t="shared" si="7"/>
+        <v>64</v>
       </c>
       <c r="N41" s="5"/>
-      <c r="O41" s="20"/>
+      <c r="O41" s="24"/>
       <c r="P41" s="24"/>
       <c r="Q41" s="24"/>
       <c r="R41" s="24"/>
@@ -2737,19 +2720,19 @@
       <c r="T41" s="24"/>
       <c r="U41" s="24"/>
       <c r="V41" s="24"/>
-      <c r="W41" s="24"/>
     </row>
-    <row r="42" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="35">
         <v>43825</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>1</v>
+      <c r="B42" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Thursday</v>
       </c>
       <c r="C42" s="39"/>
       <c r="D42" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E42" s="39"/>
       <c r="F42" s="39"/>
@@ -2759,8 +2742,8 @@
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J42" s="45">
         <f t="shared" si="4"/>
@@ -2768,18 +2751,18 @@
       </c>
       <c r="K42" s="9">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L42" s="46">
         <f t="shared" si="5"/>
-        <v>7.2434782608695647</v>
+        <v>7.9365079365079367</v>
       </c>
       <c r="M42" s="9">
-        <f t="shared" si="8"/>
-        <v>46</v>
+        <f t="shared" si="7"/>
+        <v>63</v>
       </c>
       <c r="N42" s="8"/>
-      <c r="O42" s="21"/>
+      <c r="O42" s="27"/>
       <c r="P42" s="27"/>
       <c r="Q42" s="27"/>
       <c r="R42" s="27"/>
@@ -2787,19 +2770,19 @@
       <c r="T42" s="27"/>
       <c r="U42" s="27"/>
       <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
     </row>
-    <row r="43" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="35">
         <v>43826</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>2</v>
+      <c r="B43" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
       </c>
       <c r="C43" s="39"/>
       <c r="D43" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
@@ -2809,8 +2792,8 @@
       </c>
       <c r="H43" s="9"/>
       <c r="I43" s="9">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J43" s="45">
         <f t="shared" si="4"/>
@@ -2818,18 +2801,18 @@
       </c>
       <c r="K43" s="9">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L43" s="46">
         <f t="shared" si="5"/>
-        <v>7.2434782608695647</v>
+        <v>8.064516129032258</v>
       </c>
       <c r="M43" s="9">
-        <f t="shared" si="8"/>
-        <v>46</v>
+        <f t="shared" si="7"/>
+        <v>62</v>
       </c>
       <c r="N43" s="8"/>
-      <c r="O43" s="21"/>
+      <c r="O43" s="27"/>
       <c r="P43" s="27"/>
       <c r="Q43" s="27"/>
       <c r="R43" s="27"/>
@@ -2837,14 +2820,14 @@
       <c r="T43" s="27"/>
       <c r="U43" s="27"/>
       <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
     </row>
-    <row r="44" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>43827</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>3</v>
+      <c r="B44" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
       </c>
       <c r="C44" s="38"/>
       <c r="D44" s="30" t="str">
@@ -2859,8 +2842,8 @@
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J44" s="42">
         <f t="shared" si="4"/>
@@ -2868,18 +2851,18 @@
       </c>
       <c r="K44" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L44" s="44">
         <f t="shared" si="5"/>
-        <v>7.4044444444444446</v>
+        <v>8.1967213114754092</v>
       </c>
       <c r="M44" s="6">
-        <f t="shared" si="8"/>
-        <v>45</v>
+        <f t="shared" si="7"/>
+        <v>61</v>
       </c>
       <c r="N44" s="5"/>
-      <c r="O44" s="20"/>
+      <c r="O44" s="24"/>
       <c r="P44" s="24"/>
       <c r="Q44" s="24"/>
       <c r="R44" s="24"/>
@@ -2887,14 +2870,14 @@
       <c r="T44" s="24"/>
       <c r="U44" s="24"/>
       <c r="V44" s="24"/>
-      <c r="W44" s="24"/>
     </row>
-    <row r="45" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>43828</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>4</v>
+      <c r="B45" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
       </c>
       <c r="C45" s="38"/>
       <c r="D45" s="30" t="str">
@@ -2909,8 +2892,8 @@
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J45" s="42">
         <f t="shared" si="4"/>
@@ -2918,18 +2901,18 @@
       </c>
       <c r="K45" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L45" s="44">
         <f t="shared" si="5"/>
-        <v>7.5727272727272723</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="M45" s="6">
-        <f t="shared" si="8"/>
-        <v>44</v>
+        <f t="shared" si="7"/>
+        <v>60</v>
       </c>
       <c r="N45" s="5"/>
-      <c r="O45" s="20"/>
+      <c r="O45" s="24"/>
       <c r="P45" s="24"/>
       <c r="Q45" s="24"/>
       <c r="R45" s="24"/>
@@ -2937,14 +2920,14 @@
       <c r="T45" s="24"/>
       <c r="U45" s="24"/>
       <c r="V45" s="24"/>
-      <c r="W45" s="24"/>
     </row>
-    <row r="46" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>43829</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>5</v>
+      <c r="B46" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
       </c>
       <c r="C46" s="38"/>
       <c r="D46" s="30" t="str">
@@ -2959,8 +2942,8 @@
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J46" s="42">
         <f t="shared" si="4"/>
@@ -2968,18 +2951,18 @@
       </c>
       <c r="K46" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L46" s="44">
         <f t="shared" si="5"/>
-        <v>7.7488372093023257</v>
+        <v>8.4745762711864412</v>
       </c>
       <c r="M46" s="6">
-        <f t="shared" si="8"/>
-        <v>43</v>
+        <f t="shared" si="7"/>
+        <v>59</v>
       </c>
       <c r="N46" s="5"/>
-      <c r="O46" s="20"/>
+      <c r="O46" s="24"/>
       <c r="P46" s="24"/>
       <c r="Q46" s="24"/>
       <c r="R46" s="24"/>
@@ -2987,14 +2970,14 @@
       <c r="T46" s="24"/>
       <c r="U46" s="24"/>
       <c r="V46" s="24"/>
-      <c r="W46" s="24"/>
     </row>
-    <row r="47" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>43830</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>6</v>
+      <c r="B47" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="30" t="str">
@@ -3009,8 +2992,8 @@
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J47" s="42">
         <f t="shared" si="4"/>
@@ -3018,18 +3001,18 @@
       </c>
       <c r="K47" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L47" s="44">
         <f t="shared" si="5"/>
-        <v>7.9333333333333327</v>
+        <v>8.6206896551724146</v>
       </c>
       <c r="M47" s="6">
-        <f t="shared" si="8"/>
-        <v>42</v>
+        <f t="shared" si="7"/>
+        <v>58</v>
       </c>
       <c r="N47" s="5"/>
-      <c r="O47" s="20"/>
+      <c r="O47" s="24"/>
       <c r="P47" s="24"/>
       <c r="Q47" s="24"/>
       <c r="R47" s="24"/>
@@ -3037,14 +3020,14 @@
       <c r="T47" s="24"/>
       <c r="U47" s="24"/>
       <c r="V47" s="24"/>
-      <c r="W47" s="24"/>
     </row>
-    <row r="48" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>43831</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>0</v>
+      <c r="B48" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Wednesday</v>
       </c>
       <c r="C48" s="38"/>
       <c r="D48" s="30" t="str">
@@ -3059,8 +3042,8 @@
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J48" s="42">
         <f t="shared" si="4"/>
@@ -3068,18 +3051,18 @@
       </c>
       <c r="K48" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L48" s="44">
         <f t="shared" si="5"/>
-        <v>8.126829268292683</v>
+        <v>8.7719298245614041</v>
       </c>
       <c r="M48" s="6">
-        <f t="shared" si="8"/>
-        <v>41</v>
+        <f t="shared" si="7"/>
+        <v>57</v>
       </c>
       <c r="N48" s="5"/>
-      <c r="O48" s="20"/>
+      <c r="O48" s="24"/>
       <c r="P48" s="24"/>
       <c r="Q48" s="24"/>
       <c r="R48" s="24"/>
@@ -3087,19 +3070,19 @@
       <c r="T48" s="24"/>
       <c r="U48" s="24"/>
       <c r="V48" s="24"/>
-      <c r="W48" s="24"/>
     </row>
-    <row r="49" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="35">
         <v>43832</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>1</v>
+      <c r="B49" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Thursday</v>
       </c>
       <c r="C49" s="39"/>
       <c r="D49" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E49" s="39"/>
       <c r="F49" s="39"/>
@@ -3109,8 +3092,8 @@
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="9">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J49" s="45">
         <f t="shared" si="4"/>
@@ -3118,18 +3101,18 @@
       </c>
       <c r="K49" s="9">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L49" s="46">
         <f t="shared" si="5"/>
-        <v>8.126829268292683</v>
+        <v>8.9285714285714288</v>
       </c>
       <c r="M49" s="9">
-        <f t="shared" si="8"/>
-        <v>41</v>
+        <f t="shared" si="7"/>
+        <v>56</v>
       </c>
       <c r="N49" s="8"/>
-      <c r="O49" s="21"/>
+      <c r="O49" s="27"/>
       <c r="P49" s="27"/>
       <c r="Q49" s="27"/>
       <c r="R49" s="27"/>
@@ -3137,19 +3120,19 @@
       <c r="T49" s="27"/>
       <c r="U49" s="27"/>
       <c r="V49" s="27"/>
-      <c r="W49" s="27"/>
     </row>
-    <row r="50" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="35">
         <v>43833</v>
       </c>
-      <c r="B50" s="12" t="s">
-        <v>2</v>
+      <c r="B50" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
       </c>
       <c r="C50" s="39"/>
       <c r="D50" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E50" s="39"/>
       <c r="F50" s="39"/>
@@ -3159,8 +3142,8 @@
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="9">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J50" s="45">
         <f t="shared" si="4"/>
@@ -3168,18 +3151,18 @@
       </c>
       <c r="K50" s="9">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L50" s="46">
         <f t="shared" si="5"/>
-        <v>8.126829268292683</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="M50" s="9">
-        <f t="shared" si="8"/>
-        <v>41</v>
+        <f t="shared" si="7"/>
+        <v>55</v>
       </c>
       <c r="N50" s="8"/>
-      <c r="O50" s="21"/>
+      <c r="O50" s="27"/>
       <c r="P50" s="27"/>
       <c r="Q50" s="27"/>
       <c r="R50" s="27"/>
@@ -3187,14 +3170,14 @@
       <c r="T50" s="27"/>
       <c r="U50" s="27"/>
       <c r="V50" s="27"/>
-      <c r="W50" s="27"/>
     </row>
-    <row r="51" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>43834</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>3</v>
+      <c r="B51" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
       </c>
       <c r="C51" s="38"/>
       <c r="D51" s="30" t="str">
@@ -3209,8 +3192,8 @@
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J51" s="42">
         <f t="shared" si="4"/>
@@ -3218,18 +3201,18 @@
       </c>
       <c r="K51" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L51" s="44">
         <f t="shared" si="5"/>
-        <v>8.33</v>
+        <v>9.2592592592592595</v>
       </c>
       <c r="M51" s="6">
-        <f t="shared" si="8"/>
-        <v>40</v>
+        <f t="shared" si="7"/>
+        <v>54</v>
       </c>
       <c r="N51" s="5"/>
-      <c r="O51" s="20"/>
+      <c r="O51" s="24"/>
       <c r="P51" s="24"/>
       <c r="Q51" s="24"/>
       <c r="R51" s="24"/>
@@ -3237,14 +3220,14 @@
       <c r="T51" s="24"/>
       <c r="U51" s="24"/>
       <c r="V51" s="24"/>
-      <c r="W51" s="24"/>
     </row>
-    <row r="52" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>43835</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>4</v>
+      <c r="B52" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
       </c>
       <c r="C52" s="38"/>
       <c r="D52" s="30" t="str">
@@ -3259,8 +3242,8 @@
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J52" s="42">
         <f t="shared" si="4"/>
@@ -3268,18 +3251,18 @@
       </c>
       <c r="K52" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L52" s="44">
         <f t="shared" si="5"/>
-        <v>8.5435897435897434</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="M52" s="6">
-        <f t="shared" si="8"/>
-        <v>39</v>
+        <f t="shared" si="7"/>
+        <v>53</v>
       </c>
       <c r="N52" s="5"/>
-      <c r="O52" s="20"/>
+      <c r="O52" s="24"/>
       <c r="P52" s="24"/>
       <c r="Q52" s="24"/>
       <c r="R52" s="24"/>
@@ -3287,14 +3270,14 @@
       <c r="T52" s="24"/>
       <c r="U52" s="24"/>
       <c r="V52" s="24"/>
-      <c r="W52" s="24"/>
     </row>
-    <row r="53" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>43836</v>
       </c>
-      <c r="B53" s="13" t="s">
-        <v>5</v>
+      <c r="B53" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="30" t="str">
@@ -3309,8 +3292,8 @@
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J53" s="42">
         <f t="shared" si="4"/>
@@ -3318,18 +3301,18 @@
       </c>
       <c r="K53" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L53" s="44">
         <f t="shared" si="5"/>
-        <v>8.7684210526315791</v>
+        <v>9.615384615384615</v>
       </c>
       <c r="M53" s="6">
-        <f t="shared" si="8"/>
-        <v>38</v>
+        <f t="shared" si="7"/>
+        <v>52</v>
       </c>
       <c r="N53" s="5"/>
-      <c r="O53" s="20"/>
+      <c r="O53" s="24"/>
       <c r="P53" s="24"/>
       <c r="Q53" s="24"/>
       <c r="R53" s="24"/>
@@ -3337,14 +3320,14 @@
       <c r="T53" s="24"/>
       <c r="U53" s="24"/>
       <c r="V53" s="24"/>
-      <c r="W53" s="24"/>
     </row>
-    <row r="54" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>43837</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>6</v>
+      <c r="B54" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="30" t="str">
@@ -3359,8 +3342,8 @@
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J54" s="42">
         <f t="shared" si="4"/>
@@ -3368,17 +3351,18 @@
       </c>
       <c r="K54" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L54" s="44">
         <f t="shared" si="5"/>
-        <v>9.0054054054054049</v>
+        <v>9.8039215686274517</v>
       </c>
       <c r="M54" s="6">
-        <f t="shared" si="8"/>
-        <v>37</v>
+        <f t="shared" si="7"/>
+        <v>51</v>
       </c>
       <c r="N54" s="5"/>
+      <c r="O54" s="24"/>
       <c r="P54" s="24"/>
       <c r="Q54" s="24"/>
       <c r="R54" s="24"/>
@@ -3386,14 +3370,14 @@
       <c r="T54" s="24"/>
       <c r="U54" s="24"/>
       <c r="V54" s="24"/>
-      <c r="W54" s="24"/>
     </row>
-    <row r="55" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>43838</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>0</v>
+      <c r="B55" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Wednesday</v>
       </c>
       <c r="C55" s="38"/>
       <c r="D55" s="30" t="str">
@@ -3408,8 +3392,8 @@
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J55" s="42">
         <f t="shared" si="4"/>
@@ -3417,17 +3401,18 @@
       </c>
       <c r="K55" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L55" s="44">
         <f t="shared" si="5"/>
-        <v>9.2555555555555546</v>
+        <v>10</v>
       </c>
       <c r="M55" s="6">
-        <f t="shared" si="8"/>
-        <v>36</v>
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
       <c r="N55" s="5"/>
+      <c r="O55" s="24"/>
       <c r="P55" s="24"/>
       <c r="Q55" s="24"/>
       <c r="R55" s="24"/>
@@ -3435,19 +3420,19 @@
       <c r="T55" s="24"/>
       <c r="U55" s="24"/>
       <c r="V55" s="24"/>
-      <c r="W55" s="24"/>
     </row>
-    <row r="56" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="35">
         <v>43839</v>
       </c>
-      <c r="B56" s="12" t="s">
-        <v>1</v>
+      <c r="B56" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Thursday</v>
       </c>
       <c r="C56" s="39"/>
       <c r="D56" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E56" s="39"/>
       <c r="F56" s="39"/>
@@ -3457,8 +3442,8 @@
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="9">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J56" s="45">
         <f t="shared" si="4"/>
@@ -3466,18 +3451,18 @@
       </c>
       <c r="K56" s="9">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L56" s="46">
         <f t="shared" si="5"/>
-        <v>9.2555555555555546</v>
+        <v>10.204081632653061</v>
       </c>
       <c r="M56" s="9">
-        <f t="shared" si="8"/>
-        <v>36</v>
+        <f t="shared" si="7"/>
+        <v>49</v>
       </c>
       <c r="N56" s="8"/>
-      <c r="O56" s="21"/>
+      <c r="O56" s="27"/>
       <c r="P56" s="27"/>
       <c r="Q56" s="27"/>
       <c r="R56" s="27"/>
@@ -3485,19 +3470,19 @@
       <c r="T56" s="27"/>
       <c r="U56" s="27"/>
       <c r="V56" s="27"/>
-      <c r="W56" s="27"/>
     </row>
-    <row r="57" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="35">
         <v>43840</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>2</v>
+      <c r="B57" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
       </c>
       <c r="C57" s="39"/>
       <c r="D57" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
@@ -3507,8 +3492,8 @@
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="9">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J57" s="45">
         <f t="shared" si="4"/>
@@ -3516,18 +3501,18 @@
       </c>
       <c r="K57" s="9">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L57" s="46">
         <f t="shared" si="5"/>
-        <v>9.2555555555555546</v>
+        <v>10.416666666666666</v>
       </c>
       <c r="M57" s="9">
-        <f t="shared" si="8"/>
-        <v>36</v>
+        <f t="shared" si="7"/>
+        <v>48</v>
       </c>
       <c r="N57" s="8"/>
-      <c r="O57" s="21"/>
+      <c r="O57" s="27"/>
       <c r="P57" s="27"/>
       <c r="Q57" s="27"/>
       <c r="R57" s="27"/>
@@ -3535,14 +3520,14 @@
       <c r="T57" s="27"/>
       <c r="U57" s="27"/>
       <c r="V57" s="27"/>
-      <c r="W57" s="27"/>
     </row>
-    <row r="58" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <v>43841</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>3</v>
+      <c r="B58" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
       </c>
       <c r="C58" s="38"/>
       <c r="D58" s="30" t="str">
@@ -3557,8 +3542,8 @@
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J58" s="42">
         <f t="shared" si="4"/>
@@ -3566,18 +3551,18 @@
       </c>
       <c r="K58" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L58" s="44">
         <f t="shared" si="5"/>
-        <v>9.52</v>
+        <v>10.638297872340425</v>
       </c>
       <c r="M58" s="6">
-        <f t="shared" si="8"/>
-        <v>35</v>
+        <f t="shared" si="7"/>
+        <v>47</v>
       </c>
       <c r="N58" s="5"/>
-      <c r="O58" s="20"/>
+      <c r="O58" s="24"/>
       <c r="P58" s="24"/>
       <c r="Q58" s="24"/>
       <c r="R58" s="24"/>
@@ -3585,14 +3570,14 @@
       <c r="T58" s="24"/>
       <c r="U58" s="24"/>
       <c r="V58" s="24"/>
-      <c r="W58" s="24"/>
     </row>
-    <row r="59" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>43842</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>4</v>
+      <c r="B59" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
       </c>
       <c r="C59" s="38"/>
       <c r="D59" s="30" t="str">
@@ -3607,8 +3592,8 @@
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J59" s="42">
         <f t="shared" si="4"/>
@@ -3616,18 +3601,18 @@
       </c>
       <c r="K59" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L59" s="44">
         <f t="shared" si="5"/>
-        <v>9.7999999999999989</v>
+        <v>10.869565217391305</v>
       </c>
       <c r="M59" s="6">
-        <f t="shared" si="8"/>
-        <v>34</v>
+        <f t="shared" si="7"/>
+        <v>46</v>
       </c>
       <c r="N59" s="5"/>
-      <c r="O59" s="20"/>
+      <c r="O59" s="24"/>
       <c r="P59" s="24"/>
       <c r="Q59" s="24"/>
       <c r="R59" s="24"/>
@@ -3635,14 +3620,14 @@
       <c r="T59" s="24"/>
       <c r="U59" s="24"/>
       <c r="V59" s="24"/>
-      <c r="W59" s="24"/>
     </row>
-    <row r="60" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <v>43843</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>5</v>
+      <c r="B60" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
       </c>
       <c r="C60" s="38"/>
       <c r="D60" s="30" t="str">
@@ -3657,8 +3642,8 @@
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J60" s="42">
         <f t="shared" si="4"/>
@@ -3666,18 +3651,18 @@
       </c>
       <c r="K60" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L60" s="44">
         <f t="shared" si="5"/>
-        <v>10.096969696969696</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="M60" s="6">
-        <f t="shared" si="8"/>
-        <v>33</v>
+        <f t="shared" si="7"/>
+        <v>45</v>
       </c>
       <c r="N60" s="5"/>
-      <c r="O60" s="20"/>
+      <c r="O60" s="24"/>
       <c r="P60" s="24"/>
       <c r="Q60" s="24"/>
       <c r="R60" s="24"/>
@@ -3685,14 +3670,14 @@
       <c r="T60" s="24"/>
       <c r="U60" s="24"/>
       <c r="V60" s="24"/>
-      <c r="W60" s="24"/>
     </row>
-    <row r="61" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>43844</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>6</v>
+      <c r="B61" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
       </c>
       <c r="C61" s="38"/>
       <c r="D61" s="30" t="str">
@@ -3707,8 +3692,8 @@
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J61" s="42">
         <f t="shared" si="4"/>
@@ -3716,18 +3701,18 @@
       </c>
       <c r="K61" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L61" s="44">
         <f t="shared" si="5"/>
-        <v>10.4125</v>
+        <v>11.363636363636363</v>
       </c>
       <c r="M61" s="6">
-        <f t="shared" si="8"/>
-        <v>32</v>
+        <f t="shared" si="7"/>
+        <v>44</v>
       </c>
       <c r="N61" s="5"/>
-      <c r="O61" s="20"/>
+      <c r="O61" s="24"/>
       <c r="P61" s="24"/>
       <c r="Q61" s="24"/>
       <c r="R61" s="24"/>
@@ -3735,14 +3720,14 @@
       <c r="T61" s="24"/>
       <c r="U61" s="24"/>
       <c r="V61" s="24"/>
-      <c r="W61" s="24"/>
     </row>
-    <row r="62" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
         <v>43845</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>0</v>
+      <c r="B62" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Wednesday</v>
       </c>
       <c r="C62" s="38"/>
       <c r="D62" s="30" t="str">
@@ -3757,8 +3742,8 @@
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J62" s="42">
         <f t="shared" si="4"/>
@@ -3766,18 +3751,18 @@
       </c>
       <c r="K62" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L62" s="44">
         <f t="shared" si="5"/>
-        <v>10.748387096774193</v>
+        <v>11.627906976744185</v>
       </c>
       <c r="M62" s="6">
-        <f t="shared" si="8"/>
-        <v>31</v>
+        <f t="shared" si="7"/>
+        <v>43</v>
       </c>
       <c r="N62" s="5"/>
-      <c r="O62" s="20"/>
+      <c r="O62" s="24"/>
       <c r="P62" s="24"/>
       <c r="Q62" s="24"/>
       <c r="R62" s="24"/>
@@ -3785,19 +3770,19 @@
       <c r="T62" s="24"/>
       <c r="U62" s="24"/>
       <c r="V62" s="24"/>
-      <c r="W62" s="24"/>
     </row>
-    <row r="63" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="35">
         <v>43846</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>1</v>
+      <c r="B63" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Thursday</v>
       </c>
       <c r="C63" s="39"/>
       <c r="D63" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E63" s="39"/>
       <c r="F63" s="39"/>
@@ -3807,8 +3792,8 @@
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="9">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J63" s="45">
         <f t="shared" si="4"/>
@@ -3816,18 +3801,18 @@
       </c>
       <c r="K63" s="9">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L63" s="46">
         <f t="shared" si="5"/>
-        <v>10.748387096774193</v>
+        <v>11.904761904761905</v>
       </c>
       <c r="M63" s="9">
-        <f t="shared" si="8"/>
-        <v>31</v>
+        <f t="shared" si="7"/>
+        <v>42</v>
       </c>
       <c r="N63" s="8"/>
-      <c r="O63" s="21"/>
+      <c r="O63" s="27"/>
       <c r="P63" s="27"/>
       <c r="Q63" s="27"/>
       <c r="R63" s="27"/>
@@ -3835,19 +3820,19 @@
       <c r="T63" s="27"/>
       <c r="U63" s="27"/>
       <c r="V63" s="27"/>
-      <c r="W63" s="27"/>
     </row>
-    <row r="64" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="35">
         <v>43847</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>2</v>
+      <c r="B64" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
       </c>
       <c r="C64" s="39"/>
       <c r="D64" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="E64" s="39"/>
       <c r="F64" s="39"/>
@@ -3857,8 +3842,8 @@
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J64" s="45">
         <f t="shared" si="4"/>
@@ -3866,18 +3851,18 @@
       </c>
       <c r="K64" s="9">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L64" s="46">
         <f t="shared" si="5"/>
-        <v>10.748387096774193</v>
+        <v>12.195121951219512</v>
       </c>
       <c r="M64" s="9">
-        <f t="shared" si="8"/>
-        <v>31</v>
+        <f t="shared" si="7"/>
+        <v>41</v>
       </c>
       <c r="N64" s="8"/>
-      <c r="O64" s="21"/>
+      <c r="O64" s="27"/>
       <c r="P64" s="27"/>
       <c r="Q64" s="27"/>
       <c r="R64" s="27"/>
@@ -3885,14 +3870,14 @@
       <c r="T64" s="27"/>
       <c r="U64" s="27"/>
       <c r="V64" s="27"/>
-      <c r="W64" s="27"/>
     </row>
-    <row r="65" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>43848</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>3</v>
+      <c r="B65" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
       </c>
       <c r="C65" s="38"/>
       <c r="D65" s="30" t="str">
@@ -3907,8 +3892,8 @@
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6">
-        <f t="shared" si="7"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J65" s="42">
         <f t="shared" si="4"/>
@@ -3916,18 +3901,18 @@
       </c>
       <c r="K65" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L65" s="44">
         <f t="shared" si="5"/>
-        <v>11.106666666666666</v>
+        <v>12.5</v>
       </c>
       <c r="M65" s="6">
-        <f t="shared" si="8"/>
-        <v>30</v>
+        <f t="shared" si="7"/>
+        <v>40</v>
       </c>
       <c r="N65" s="5"/>
-      <c r="O65" s="20"/>
+      <c r="O65" s="24"/>
       <c r="P65" s="24"/>
       <c r="Q65" s="24"/>
       <c r="R65" s="24"/>
@@ -3935,14 +3920,14 @@
       <c r="T65" s="24"/>
       <c r="U65" s="24"/>
       <c r="V65" s="24"/>
-      <c r="W65" s="24"/>
     </row>
-    <row r="66" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <v>43849</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>4</v>
+      <c r="B66" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
       </c>
       <c r="C66" s="38"/>
       <c r="D66" s="30" t="str">
@@ -3957,8 +3942,8 @@
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6">
-        <f t="shared" ref="I66:I97" si="9">$S$1</f>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J66" s="42">
         <f t="shared" si="4"/>
@@ -3966,18 +3951,18 @@
       </c>
       <c r="K66" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L66" s="44">
         <f t="shared" si="5"/>
-        <v>11.489655172413793</v>
+        <v>12.820512820512821</v>
       </c>
       <c r="M66" s="6">
-        <f t="shared" si="8"/>
-        <v>29</v>
+        <f t="shared" si="7"/>
+        <v>39</v>
       </c>
       <c r="N66" s="5"/>
-      <c r="O66" s="20"/>
+      <c r="O66" s="24"/>
       <c r="P66" s="24"/>
       <c r="Q66" s="24"/>
       <c r="R66" s="24"/>
@@ -3985,30 +3970,30 @@
       <c r="T66" s="24"/>
       <c r="U66" s="24"/>
       <c r="V66" s="24"/>
-      <c r="W66" s="24"/>
     </row>
-    <row r="67" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
         <v>43850</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>5</v>
+      <c r="B67" s="11" t="str">
+        <f t="shared" ref="B67:B104" si="8">TEXT(A67,"dddd")</f>
+        <v>Monday</v>
       </c>
       <c r="C67" s="38"/>
       <c r="D67" s="30" t="str">
-        <f t="shared" ref="D67:D104" si="10">IF(OR(B67="Zaterdag",B67="Zondag",C67&lt;&gt;""),"N","Y")</f>
+        <f t="shared" ref="D67:D104" si="9">IF(OR(B67="Zaterdag",B67="Zondag",C67&lt;&gt;""),"N","Y")</f>
         <v>Y</v>
       </c>
       <c r="E67" s="38"/>
       <c r="F67" s="38"/>
       <c r="G67" s="6">
-        <f t="shared" ref="G67:G104" si="11">F67-E67</f>
+        <f t="shared" ref="G67:G104" si="10">F67-E67</f>
         <v>0</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J67" s="42">
         <f t="shared" si="4"/>
@@ -4016,18 +4001,18 @@
       </c>
       <c r="K67" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L67" s="44">
         <f t="shared" si="5"/>
-        <v>11.9</v>
+        <v>13.157894736842104</v>
       </c>
       <c r="M67" s="6">
-        <f t="shared" ref="M67:M98" si="12">IF(D67="Y",M66-1,M66)</f>
-        <v>28</v>
+        <f t="shared" ref="M67:M98" si="11">IF(D67="Y",M66-1,M66)</f>
+        <v>38</v>
       </c>
       <c r="N67" s="5"/>
-      <c r="O67" s="20"/>
+      <c r="O67" s="24"/>
       <c r="P67" s="24"/>
       <c r="Q67" s="24"/>
       <c r="R67" s="24"/>
@@ -4035,49 +4020,49 @@
       <c r="T67" s="24"/>
       <c r="U67" s="24"/>
       <c r="V67" s="24"/>
-      <c r="W67" s="24"/>
     </row>
-    <row r="68" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
         <v>43851</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>6</v>
+      <c r="B68" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Tuesday</v>
       </c>
       <c r="C68" s="38"/>
       <c r="D68" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E68" s="38"/>
       <c r="F68" s="38"/>
       <c r="G68" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J68" s="42">
-        <f t="shared" ref="J68:J104" si="13">G68/$S$1</f>
+        <f t="shared" ref="J68:J104" si="12">G68/$R$1</f>
         <v>0</v>
       </c>
       <c r="K68" s="6">
         <f t="shared" si="6"/>
-        <v>333.2</v>
+        <v>500</v>
       </c>
       <c r="L68" s="44">
-        <f t="shared" ref="L68:L104" si="14">K67/M68</f>
-        <v>12.34074074074074</v>
+        <f t="shared" ref="L68:L104" si="13">K67/M68</f>
+        <v>13.513513513513514</v>
       </c>
       <c r="M68" s="6">
-        <f t="shared" si="12"/>
-        <v>27</v>
+        <f t="shared" si="11"/>
+        <v>37</v>
       </c>
       <c r="N68" s="5"/>
-      <c r="O68" s="20"/>
+      <c r="O68" s="24"/>
       <c r="P68" s="24"/>
       <c r="Q68" s="24"/>
       <c r="R68" s="24"/>
@@ -4085,49 +4070,49 @@
       <c r="T68" s="24"/>
       <c r="U68" s="24"/>
       <c r="V68" s="24"/>
-      <c r="W68" s="24"/>
     </row>
-    <row r="69" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <v>43852</v>
       </c>
-      <c r="B69" s="11" t="s">
-        <v>0</v>
+      <c r="B69" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Wednesday</v>
       </c>
       <c r="C69" s="38"/>
       <c r="D69" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38"/>
       <c r="G69" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J69" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="6">
+        <f t="shared" ref="K69:K104" si="14">K68-G69</f>
+        <v>500</v>
+      </c>
+      <c r="L69" s="44">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="6">
-        <f t="shared" ref="K69:K104" si="15">K68-G69</f>
-        <v>333.2</v>
-      </c>
-      <c r="L69" s="44">
-        <f t="shared" si="14"/>
-        <v>12.815384615384614</v>
+        <v>13.888888888888889</v>
       </c>
       <c r="M69" s="6">
-        <f t="shared" si="12"/>
-        <v>26</v>
+        <f t="shared" si="11"/>
+        <v>36</v>
       </c>
       <c r="N69" s="5"/>
-      <c r="O69" s="20"/>
+      <c r="O69" s="24"/>
       <c r="P69" s="24"/>
       <c r="Q69" s="24"/>
       <c r="R69" s="24"/>
@@ -4135,49 +4120,49 @@
       <c r="T69" s="24"/>
       <c r="U69" s="24"/>
       <c r="V69" s="24"/>
-      <c r="W69" s="24"/>
     </row>
-    <row r="70" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="35">
         <v>43853</v>
       </c>
-      <c r="B70" s="12" t="s">
-        <v>1</v>
+      <c r="B70" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>Thursday</v>
       </c>
       <c r="C70" s="39"/>
       <c r="D70" s="31" t="str">
-        <f t="shared" si="10"/>
-        <v>N</v>
+        <f t="shared" si="9"/>
+        <v>Y</v>
       </c>
       <c r="E70" s="39"/>
       <c r="F70" s="39"/>
       <c r="G70" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="9">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J70" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="9">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L70" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K70" s="9">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L70" s="46">
-        <f t="shared" si="14"/>
-        <v>12.815384615384614</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="M70" s="9">
-        <f t="shared" si="12"/>
-        <v>26</v>
+        <f t="shared" si="11"/>
+        <v>35</v>
       </c>
       <c r="N70" s="8"/>
-      <c r="O70" s="21"/>
+      <c r="O70" s="27"/>
       <c r="P70" s="27"/>
       <c r="Q70" s="27"/>
       <c r="R70" s="27"/>
@@ -4185,49 +4170,49 @@
       <c r="T70" s="27"/>
       <c r="U70" s="27"/>
       <c r="V70" s="27"/>
-      <c r="W70" s="27"/>
     </row>
-    <row r="71" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="35">
         <v>43854</v>
       </c>
-      <c r="B71" s="12" t="s">
-        <v>2</v>
+      <c r="B71" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>Friday</v>
       </c>
       <c r="C71" s="39"/>
       <c r="D71" s="31" t="str">
-        <f t="shared" si="10"/>
-        <v>N</v>
+        <f t="shared" si="9"/>
+        <v>Y</v>
       </c>
       <c r="E71" s="39"/>
       <c r="F71" s="39"/>
       <c r="G71" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="9">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J71" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="9">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L71" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K71" s="9">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L71" s="46">
-        <f t="shared" si="14"/>
-        <v>12.815384615384614</v>
+        <v>14.705882352941176</v>
       </c>
       <c r="M71" s="9">
-        <f t="shared" si="12"/>
-        <v>26</v>
+        <f t="shared" si="11"/>
+        <v>34</v>
       </c>
       <c r="N71" s="8"/>
-      <c r="O71" s="21"/>
+      <c r="O71" s="27"/>
       <c r="P71" s="27"/>
       <c r="Q71" s="27"/>
       <c r="R71" s="27"/>
@@ -4235,49 +4220,49 @@
       <c r="T71" s="27"/>
       <c r="U71" s="27"/>
       <c r="V71" s="27"/>
-      <c r="W71" s="27"/>
     </row>
-    <row r="72" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15">
         <v>43855</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>3</v>
+      <c r="B72" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Saturday</v>
       </c>
       <c r="C72" s="38"/>
       <c r="D72" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E72" s="38"/>
       <c r="F72" s="38"/>
       <c r="G72" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J72" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="6">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L72" s="44">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K72" s="6">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L72" s="44">
-        <f t="shared" si="14"/>
-        <v>13.327999999999999</v>
+        <v>15.151515151515152</v>
       </c>
       <c r="M72" s="6">
-        <f t="shared" si="12"/>
-        <v>25</v>
+        <f t="shared" si="11"/>
+        <v>33</v>
       </c>
       <c r="N72" s="5"/>
-      <c r="O72" s="20"/>
+      <c r="O72" s="24"/>
       <c r="P72" s="24"/>
       <c r="Q72" s="24"/>
       <c r="R72" s="24"/>
@@ -4285,49 +4270,49 @@
       <c r="T72" s="24"/>
       <c r="U72" s="24"/>
       <c r="V72" s="24"/>
-      <c r="W72" s="24"/>
     </row>
-    <row r="73" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <v>43856</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>4</v>
+      <c r="B73" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Sunday</v>
       </c>
       <c r="C73" s="38"/>
       <c r="D73" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="38"/>
       <c r="G73" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J73" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="6">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L73" s="44">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K73" s="6">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L73" s="44">
-        <f t="shared" si="14"/>
-        <v>13.883333333333333</v>
+        <v>15.625</v>
       </c>
       <c r="M73" s="6">
-        <f t="shared" si="12"/>
-        <v>24</v>
+        <f t="shared" si="11"/>
+        <v>32</v>
       </c>
       <c r="N73" s="5"/>
-      <c r="O73" s="20"/>
+      <c r="O73" s="24"/>
       <c r="P73" s="24"/>
       <c r="Q73" s="24"/>
       <c r="R73" s="24"/>
@@ -4335,49 +4320,49 @@
       <c r="T73" s="24"/>
       <c r="U73" s="24"/>
       <c r="V73" s="24"/>
-      <c r="W73" s="24"/>
     </row>
-    <row r="74" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <v>43857</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>5</v>
+      <c r="B74" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Monday</v>
       </c>
       <c r="C74" s="38"/>
       <c r="D74" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E74" s="38"/>
       <c r="F74" s="38"/>
       <c r="G74" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J74" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="6">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L74" s="44">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K74" s="6">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L74" s="44">
-        <f t="shared" si="14"/>
-        <v>14.486956521739129</v>
+        <v>16.129032258064516</v>
       </c>
       <c r="M74" s="6">
-        <f t="shared" si="12"/>
-        <v>23</v>
+        <f t="shared" si="11"/>
+        <v>31</v>
       </c>
       <c r="N74" s="5"/>
-      <c r="O74" s="20"/>
+      <c r="O74" s="24"/>
       <c r="P74" s="24"/>
       <c r="Q74" s="24"/>
       <c r="R74" s="24"/>
@@ -4385,49 +4370,49 @@
       <c r="T74" s="24"/>
       <c r="U74" s="24"/>
       <c r="V74" s="24"/>
-      <c r="W74" s="24"/>
     </row>
-    <row r="75" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
         <v>43858</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>6</v>
+      <c r="B75" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Tuesday</v>
       </c>
       <c r="C75" s="38"/>
       <c r="D75" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E75" s="38"/>
       <c r="F75" s="38"/>
       <c r="G75" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J75" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="6">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L75" s="44">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K75" s="6">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L75" s="44">
-        <f t="shared" si="14"/>
-        <v>15.145454545454545</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="M75" s="6">
-        <f t="shared" si="12"/>
-        <v>22</v>
+        <f t="shared" si="11"/>
+        <v>30</v>
       </c>
       <c r="N75" s="26"/>
-      <c r="O75" s="20"/>
+      <c r="O75" s="24"/>
       <c r="P75" s="24"/>
       <c r="Q75" s="24"/>
       <c r="R75" s="24"/>
@@ -4435,48 +4420,49 @@
       <c r="T75" s="24"/>
       <c r="U75" s="24"/>
       <c r="V75" s="24"/>
-      <c r="W75" s="24"/>
     </row>
-    <row r="76" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15">
         <v>43859</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>0</v>
+      <c r="B76" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Wednesday</v>
       </c>
       <c r="C76" s="38"/>
       <c r="D76" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E76" s="38"/>
       <c r="F76" s="38"/>
       <c r="G76" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J76" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="6">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L76" s="44">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K76" s="6">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L76" s="44">
-        <f t="shared" si="14"/>
-        <v>15.866666666666665</v>
+        <v>17.241379310344829</v>
       </c>
       <c r="M76" s="6">
-        <f t="shared" si="12"/>
-        <v>21</v>
+        <f t="shared" si="11"/>
+        <v>29</v>
       </c>
       <c r="N76" s="5"/>
+      <c r="O76" s="24"/>
       <c r="P76" s="24"/>
       <c r="Q76" s="24"/>
       <c r="R76" s="24"/>
@@ -4484,49 +4470,49 @@
       <c r="T76" s="24"/>
       <c r="U76" s="24"/>
       <c r="V76" s="24"/>
-      <c r="W76" s="24"/>
     </row>
-    <row r="77" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="35">
         <v>43860</v>
       </c>
-      <c r="B77" s="12" t="s">
-        <v>1</v>
+      <c r="B77" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>Thursday</v>
       </c>
       <c r="C77" s="39"/>
       <c r="D77" s="31" t="str">
-        <f t="shared" si="10"/>
-        <v>N</v>
+        <f t="shared" si="9"/>
+        <v>Y</v>
       </c>
       <c r="E77" s="39"/>
       <c r="F77" s="39"/>
       <c r="G77" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H77" s="9"/>
       <c r="I77" s="9">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J77" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="9">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L77" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K77" s="9">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L77" s="46">
-        <f t="shared" si="14"/>
-        <v>15.866666666666665</v>
+        <v>17.857142857142858</v>
       </c>
       <c r="M77" s="9">
-        <f t="shared" si="12"/>
-        <v>21</v>
+        <f t="shared" si="11"/>
+        <v>28</v>
       </c>
       <c r="N77" s="8"/>
-      <c r="O77" s="54"/>
+      <c r="O77" s="27"/>
       <c r="P77" s="27"/>
       <c r="Q77" s="27"/>
       <c r="R77" s="27"/>
@@ -4534,49 +4520,49 @@
       <c r="T77" s="27"/>
       <c r="U77" s="27"/>
       <c r="V77" s="27"/>
-      <c r="W77" s="27"/>
     </row>
-    <row r="78" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="35">
         <v>43861</v>
       </c>
-      <c r="B78" s="12" t="s">
-        <v>2</v>
+      <c r="B78" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>Friday</v>
       </c>
       <c r="C78" s="39"/>
       <c r="D78" s="31" t="str">
-        <f t="shared" si="10"/>
-        <v>N</v>
+        <f t="shared" si="9"/>
+        <v>Y</v>
       </c>
       <c r="E78" s="39"/>
       <c r="F78" s="39"/>
       <c r="G78" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="9">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J78" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="9">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L78" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K78" s="9">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L78" s="46">
-        <f t="shared" si="14"/>
-        <v>15.866666666666665</v>
+        <v>18.518518518518519</v>
       </c>
       <c r="M78" s="9">
-        <f t="shared" si="12"/>
-        <v>21</v>
+        <f t="shared" si="11"/>
+        <v>27</v>
       </c>
       <c r="N78" s="8"/>
-      <c r="O78" s="54"/>
+      <c r="O78" s="27"/>
       <c r="P78" s="27"/>
       <c r="Q78" s="27"/>
       <c r="R78" s="27"/>
@@ -4584,49 +4570,49 @@
       <c r="T78" s="27"/>
       <c r="U78" s="27"/>
       <c r="V78" s="27"/>
-      <c r="W78" s="27"/>
     </row>
-    <row r="79" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <v>43862</v>
       </c>
-      <c r="B79" s="11" t="s">
-        <v>3</v>
+      <c r="B79" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Saturday</v>
       </c>
       <c r="C79" s="38"/>
       <c r="D79" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E79" s="38"/>
       <c r="F79" s="38"/>
       <c r="G79" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H79" s="41"/>
       <c r="I79" s="6">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J79" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="6">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L79" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K79" s="6">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L79" s="6">
-        <f t="shared" si="14"/>
-        <v>16.66</v>
+        <v>19.23076923076923</v>
       </c>
       <c r="M79" s="48">
-        <f t="shared" si="12"/>
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>26</v>
       </c>
       <c r="N79" s="20"/>
-      <c r="O79" s="20"/>
+      <c r="O79" s="24"/>
       <c r="P79" s="24"/>
       <c r="Q79" s="24"/>
       <c r="R79" s="24"/>
@@ -4634,49 +4620,49 @@
       <c r="T79" s="24"/>
       <c r="U79" s="24"/>
       <c r="V79" s="24"/>
-      <c r="W79" s="24"/>
     </row>
-    <row r="80" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
         <v>43863</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>4</v>
+      <c r="B80" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Sunday</v>
       </c>
       <c r="C80" s="38"/>
       <c r="D80" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E80" s="38"/>
       <c r="F80" s="38"/>
       <c r="G80" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H80" s="41"/>
       <c r="I80" s="6">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J80" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="6">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L80" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K80" s="6">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L80" s="43">
-        <f t="shared" si="14"/>
-        <v>17.536842105263158</v>
+        <v>20</v>
       </c>
       <c r="M80" s="48">
-        <f t="shared" si="12"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>25</v>
       </c>
       <c r="N80" s="20"/>
-      <c r="O80" s="20"/>
+      <c r="O80" s="24"/>
       <c r="P80" s="24"/>
       <c r="Q80" s="24"/>
       <c r="R80" s="24"/>
@@ -4684,48 +4670,49 @@
       <c r="T80" s="24"/>
       <c r="U80" s="24"/>
       <c r="V80" s="24"/>
-      <c r="W80" s="24"/>
     </row>
-    <row r="81" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15">
         <v>43864</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>5</v>
+      <c r="B81" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Monday</v>
       </c>
       <c r="C81" s="38"/>
       <c r="D81" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E81" s="38"/>
       <c r="F81" s="38"/>
       <c r="G81" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J81" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K81" s="6">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L81" s="44">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K81" s="6">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L81" s="44">
-        <f t="shared" si="14"/>
-        <v>18.511111111111109</v>
+        <v>20.833333333333332</v>
       </c>
       <c r="M81" s="6">
-        <f t="shared" si="12"/>
-        <v>18</v>
+        <f t="shared" si="11"/>
+        <v>24</v>
       </c>
       <c r="N81" s="26"/>
+      <c r="O81" s="24"/>
       <c r="P81" s="24"/>
       <c r="Q81" s="24"/>
       <c r="R81" s="24"/>
@@ -4733,48 +4720,49 @@
       <c r="T81" s="24"/>
       <c r="U81" s="24"/>
       <c r="V81" s="24"/>
-      <c r="W81" s="24"/>
     </row>
-    <row r="82" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15">
         <v>43865</v>
       </c>
-      <c r="B82" s="11" t="s">
-        <v>6</v>
+      <c r="B82" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Tuesday</v>
       </c>
       <c r="C82" s="38"/>
       <c r="D82" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E82" s="38"/>
       <c r="F82" s="38"/>
       <c r="G82" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J82" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K82" s="6">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L82" s="44">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K82" s="6">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L82" s="44">
-        <f t="shared" si="14"/>
-        <v>19.599999999999998</v>
+        <v>21.739130434782609</v>
       </c>
       <c r="M82" s="6">
-        <f t="shared" si="12"/>
-        <v>17</v>
+        <f t="shared" si="11"/>
+        <v>23</v>
       </c>
       <c r="N82" s="5"/>
+      <c r="O82" s="24"/>
       <c r="P82" s="24"/>
       <c r="Q82" s="24"/>
       <c r="R82" s="24"/>
@@ -4782,48 +4770,49 @@
       <c r="T82" s="24"/>
       <c r="U82" s="24"/>
       <c r="V82" s="24"/>
-      <c r="W82" s="24"/>
     </row>
-    <row r="83" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15">
         <v>43866</v>
       </c>
-      <c r="B83" s="11" t="s">
-        <v>0</v>
+      <c r="B83" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Wednesday</v>
       </c>
       <c r="C83" s="38"/>
       <c r="D83" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="38"/>
       <c r="G83" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J83" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="6">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L83" s="44">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K83" s="6">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L83" s="44">
-        <f t="shared" si="14"/>
-        <v>20.824999999999999</v>
+        <v>22.727272727272727</v>
       </c>
       <c r="M83" s="6">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="11"/>
+        <v>22</v>
       </c>
       <c r="N83" s="5"/>
+      <c r="O83" s="24"/>
       <c r="P83" s="24"/>
       <c r="Q83" s="24"/>
       <c r="R83" s="24"/>
@@ -4831,49 +4820,49 @@
       <c r="T83" s="24"/>
       <c r="U83" s="24"/>
       <c r="V83" s="24"/>
-      <c r="W83" s="24"/>
     </row>
-    <row r="84" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="35">
         <v>43867</v>
       </c>
-      <c r="B84" s="12" t="s">
-        <v>1</v>
+      <c r="B84" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>Thursday</v>
       </c>
       <c r="C84" s="39"/>
       <c r="D84" s="31" t="str">
-        <f t="shared" si="10"/>
-        <v>N</v>
+        <f t="shared" si="9"/>
+        <v>Y</v>
       </c>
       <c r="E84" s="39"/>
       <c r="F84" s="39"/>
       <c r="G84" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H84" s="49"/>
       <c r="I84" s="9">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J84" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="9">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L84" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K84" s="9">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L84" s="46">
-        <f t="shared" si="14"/>
-        <v>20.824999999999999</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="M84" s="9">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="11"/>
+        <v>21</v>
       </c>
       <c r="N84" s="21"/>
-      <c r="O84" s="54"/>
+      <c r="O84" s="27"/>
       <c r="P84" s="27"/>
       <c r="Q84" s="27"/>
       <c r="R84" s="27"/>
@@ -4881,49 +4870,49 @@
       <c r="T84" s="27"/>
       <c r="U84" s="27"/>
       <c r="V84" s="27"/>
-      <c r="W84" s="27"/>
     </row>
-    <row r="85" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="35">
         <v>43868</v>
       </c>
-      <c r="B85" s="12" t="s">
-        <v>2</v>
+      <c r="B85" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>Friday</v>
       </c>
       <c r="C85" s="39"/>
       <c r="D85" s="31" t="str">
-        <f t="shared" si="10"/>
-        <v>N</v>
+        <f t="shared" si="9"/>
+        <v>Y</v>
       </c>
       <c r="E85" s="39"/>
       <c r="F85" s="39"/>
       <c r="G85" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H85" s="49"/>
       <c r="I85" s="9">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J85" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K85" s="9">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L85" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K85" s="9">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L85" s="46">
-        <f t="shared" si="14"/>
-        <v>20.824999999999999</v>
+        <v>25</v>
       </c>
       <c r="M85" s="9">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="11"/>
+        <v>20</v>
       </c>
       <c r="N85" s="21"/>
-      <c r="O85" s="54"/>
+      <c r="O85" s="27"/>
       <c r="P85" s="27"/>
       <c r="Q85" s="27"/>
       <c r="R85" s="27"/>
@@ -4931,49 +4920,49 @@
       <c r="T85" s="27"/>
       <c r="U85" s="27"/>
       <c r="V85" s="27"/>
-      <c r="W85" s="27"/>
     </row>
-    <row r="86" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15">
         <v>43869</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>3</v>
+      <c r="B86" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Saturday</v>
       </c>
       <c r="C86" s="38"/>
       <c r="D86" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E86" s="38"/>
       <c r="F86" s="38"/>
       <c r="G86" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H86" s="41"/>
       <c r="I86" s="6">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J86" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="6">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L86" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K86" s="6">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L86" s="43">
-        <f t="shared" si="14"/>
-        <v>22.213333333333331</v>
+        <v>26.315789473684209</v>
       </c>
       <c r="M86" s="48">
-        <f t="shared" si="12"/>
-        <v>15</v>
+        <f t="shared" si="11"/>
+        <v>19</v>
       </c>
       <c r="N86" s="20"/>
-      <c r="O86" s="20"/>
+      <c r="O86" s="24"/>
       <c r="P86" s="24"/>
       <c r="Q86" s="24"/>
       <c r="R86" s="24"/>
@@ -4981,48 +4970,49 @@
       <c r="T86" s="24"/>
       <c r="U86" s="24"/>
       <c r="V86" s="24"/>
-      <c r="W86" s="24"/>
     </row>
-    <row r="87" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15">
         <v>43870</v>
       </c>
-      <c r="B87" s="11" t="s">
-        <v>4</v>
+      <c r="B87" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Sunday</v>
       </c>
       <c r="C87" s="38"/>
       <c r="D87" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E87" s="38"/>
       <c r="F87" s="38"/>
       <c r="G87" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="6">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J87" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K87" s="6">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L87" s="44">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K87" s="6">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L87" s="44">
-        <f t="shared" si="14"/>
-        <v>23.8</v>
+        <v>27.777777777777779</v>
       </c>
       <c r="M87" s="6">
-        <f t="shared" si="12"/>
-        <v>14</v>
+        <f t="shared" si="11"/>
+        <v>18</v>
       </c>
       <c r="N87" s="5"/>
+      <c r="O87" s="24"/>
       <c r="P87" s="24"/>
       <c r="Q87" s="24"/>
       <c r="R87" s="24"/>
@@ -5030,48 +5020,49 @@
       <c r="T87" s="24"/>
       <c r="U87" s="24"/>
       <c r="V87" s="24"/>
-      <c r="W87" s="24"/>
     </row>
-    <row r="88" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15">
         <v>43871</v>
       </c>
-      <c r="B88" s="11" t="s">
-        <v>5</v>
+      <c r="B88" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Monday</v>
       </c>
       <c r="C88" s="38"/>
       <c r="D88" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="38"/>
       <c r="G88" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H88" s="6"/>
       <c r="I88" s="6">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J88" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="6">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L88" s="44">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K88" s="6">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L88" s="44">
-        <f t="shared" si="14"/>
-        <v>25.630769230769229</v>
+        <v>29.411764705882351</v>
       </c>
       <c r="M88" s="6">
-        <f t="shared" si="12"/>
-        <v>13</v>
+        <f t="shared" si="11"/>
+        <v>17</v>
       </c>
       <c r="N88" s="5"/>
+      <c r="O88" s="24"/>
       <c r="P88" s="24"/>
       <c r="Q88" s="24"/>
       <c r="R88" s="24"/>
@@ -5079,48 +5070,49 @@
       <c r="T88" s="24"/>
       <c r="U88" s="24"/>
       <c r="V88" s="24"/>
-      <c r="W88" s="24"/>
     </row>
-    <row r="89" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15">
         <v>43872</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>6</v>
+      <c r="B89" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Tuesday</v>
       </c>
       <c r="C89" s="38"/>
       <c r="D89" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E89" s="38"/>
       <c r="F89" s="38"/>
       <c r="G89" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H89" s="6"/>
       <c r="I89" s="6">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J89" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K89" s="6">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L89" s="44">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K89" s="6">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L89" s="44">
-        <f t="shared" si="14"/>
-        <v>27.766666666666666</v>
+        <v>31.25</v>
       </c>
       <c r="M89" s="6">
-        <f t="shared" si="12"/>
-        <v>12</v>
+        <f t="shared" si="11"/>
+        <v>16</v>
       </c>
       <c r="N89" s="5"/>
+      <c r="O89" s="24"/>
       <c r="P89" s="24"/>
       <c r="Q89" s="24"/>
       <c r="R89" s="24"/>
@@ -5128,48 +5120,49 @@
       <c r="T89" s="24"/>
       <c r="U89" s="24"/>
       <c r="V89" s="24"/>
-      <c r="W89" s="24"/>
     </row>
-    <row r="90" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15">
         <v>43873</v>
       </c>
-      <c r="B90" s="11" t="s">
-        <v>0</v>
+      <c r="B90" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Wednesday</v>
       </c>
       <c r="C90" s="38"/>
       <c r="D90" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E90" s="38"/>
       <c r="F90" s="38"/>
       <c r="G90" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="6">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J90" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K90" s="6">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L90" s="44">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K90" s="6">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L90" s="44">
-        <f t="shared" si="14"/>
-        <v>30.290909090909089</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M90" s="6">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <f t="shared" si="11"/>
+        <v>15</v>
       </c>
       <c r="N90" s="5"/>
+      <c r="O90" s="24"/>
       <c r="P90" s="24"/>
       <c r="Q90" s="24"/>
       <c r="R90" s="24"/>
@@ -5177,49 +5170,49 @@
       <c r="T90" s="24"/>
       <c r="U90" s="24"/>
       <c r="V90" s="24"/>
-      <c r="W90" s="24"/>
     </row>
-    <row r="91" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="35">
         <v>43874</v>
       </c>
-      <c r="B91" s="12" t="s">
-        <v>1</v>
+      <c r="B91" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>Thursday</v>
       </c>
       <c r="C91" s="39"/>
       <c r="D91" s="31" t="str">
-        <f t="shared" si="10"/>
-        <v>N</v>
+        <f t="shared" si="9"/>
+        <v>Y</v>
       </c>
       <c r="E91" s="39"/>
       <c r="F91" s="39"/>
       <c r="G91" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H91" s="49"/>
       <c r="I91" s="9">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J91" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K91" s="9">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L91" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K91" s="9">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L91" s="46">
-        <f t="shared" si="14"/>
-        <v>30.290909090909089</v>
+        <v>35.714285714285715</v>
       </c>
       <c r="M91" s="9">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <f t="shared" si="11"/>
+        <v>14</v>
       </c>
       <c r="N91" s="25"/>
-      <c r="O91" s="55"/>
+      <c r="O91" s="24"/>
       <c r="P91" s="24"/>
       <c r="Q91" s="24"/>
       <c r="R91" s="24"/>
@@ -5227,49 +5220,49 @@
       <c r="T91" s="24"/>
       <c r="U91" s="24"/>
       <c r="V91" s="24"/>
-      <c r="W91" s="24"/>
     </row>
-    <row r="92" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="35">
         <v>43875</v>
       </c>
-      <c r="B92" s="12" t="s">
-        <v>2</v>
+      <c r="B92" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>Friday</v>
       </c>
       <c r="C92" s="39"/>
       <c r="D92" s="31" t="str">
-        <f t="shared" si="10"/>
-        <v>N</v>
+        <f t="shared" si="9"/>
+        <v>Y</v>
       </c>
       <c r="E92" s="39"/>
       <c r="F92" s="39"/>
       <c r="G92" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H92" s="49"/>
       <c r="I92" s="9">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J92" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K92" s="9">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L92" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K92" s="9">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L92" s="46">
-        <f t="shared" si="14"/>
-        <v>30.290909090909089</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="M92" s="9">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <f t="shared" si="11"/>
+        <v>13</v>
       </c>
       <c r="N92" s="21"/>
-      <c r="O92" s="54"/>
+      <c r="O92" s="27"/>
       <c r="P92" s="27"/>
       <c r="Q92" s="27"/>
       <c r="R92" s="27"/>
@@ -5277,48 +5270,49 @@
       <c r="T92" s="27"/>
       <c r="U92" s="27"/>
       <c r="V92" s="27"/>
-      <c r="W92" s="27"/>
     </row>
-    <row r="93" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15">
         <v>43876</v>
       </c>
-      <c r="B93" s="11" t="s">
-        <v>3</v>
+      <c r="B93" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Saturday</v>
       </c>
       <c r="C93" s="38"/>
       <c r="D93" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38"/>
       <c r="G93" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H93" s="6"/>
       <c r="I93" s="6">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J93" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K93" s="6">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L93" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K93" s="6">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L93" s="43">
-        <f t="shared" si="14"/>
-        <v>33.32</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="M93" s="1">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>12</v>
       </c>
       <c r="N93" s="5"/>
+      <c r="O93" s="24"/>
       <c r="P93" s="24"/>
       <c r="Q93" s="24"/>
       <c r="R93" s="24"/>
@@ -5326,48 +5320,49 @@
       <c r="T93" s="24"/>
       <c r="U93" s="24"/>
       <c r="V93" s="24"/>
-      <c r="W93" s="24"/>
     </row>
-    <row r="94" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15">
         <v>43877</v>
       </c>
-      <c r="B94" s="11" t="s">
-        <v>4</v>
+      <c r="B94" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Sunday</v>
       </c>
       <c r="C94" s="38"/>
       <c r="D94" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="38"/>
       <c r="G94" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H94" s="6"/>
       <c r="I94" s="6">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J94" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K94" s="6">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L94" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K94" s="6">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L94" s="43">
-        <f t="shared" si="14"/>
-        <v>37.022222222222219</v>
+        <v>45.454545454545453</v>
       </c>
       <c r="M94" s="1">
-        <f t="shared" si="12"/>
-        <v>9</v>
+        <f t="shared" si="11"/>
+        <v>11</v>
       </c>
       <c r="N94" s="5"/>
+      <c r="O94" s="24"/>
       <c r="P94" s="24"/>
       <c r="Q94" s="24"/>
       <c r="R94" s="24"/>
@@ -5375,48 +5370,49 @@
       <c r="T94" s="24"/>
       <c r="U94" s="24"/>
       <c r="V94" s="24"/>
-      <c r="W94" s="24"/>
     </row>
-    <row r="95" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15">
         <v>43878</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>5</v>
+      <c r="B95" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Monday</v>
       </c>
       <c r="C95" s="38"/>
       <c r="D95" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="38"/>
       <c r="G95" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H95" s="6"/>
       <c r="I95" s="6">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J95" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K95" s="6">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L95" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K95" s="6">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L95" s="43">
-        <f t="shared" si="14"/>
-        <v>41.65</v>
+        <v>50</v>
       </c>
       <c r="M95" s="1">
-        <f t="shared" si="12"/>
-        <v>8</v>
+        <f t="shared" si="11"/>
+        <v>10</v>
       </c>
       <c r="N95" s="5"/>
+      <c r="O95" s="24"/>
       <c r="P95" s="24"/>
       <c r="Q95" s="24"/>
       <c r="R95" s="24"/>
@@ -5424,48 +5420,49 @@
       <c r="T95" s="24"/>
       <c r="U95" s="24"/>
       <c r="V95" s="24"/>
-      <c r="W95" s="24"/>
     </row>
-    <row r="96" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15">
         <v>43879</v>
       </c>
-      <c r="B96" s="11" t="s">
-        <v>6</v>
+      <c r="B96" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Tuesday</v>
       </c>
       <c r="C96" s="38"/>
       <c r="D96" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="38"/>
       <c r="G96" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="6">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J96" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K96" s="6">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L96" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K96" s="6">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L96" s="43">
-        <f t="shared" si="14"/>
-        <v>47.6</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="M96" s="1">
-        <f t="shared" si="12"/>
-        <v>7</v>
+        <f t="shared" si="11"/>
+        <v>9</v>
       </c>
       <c r="N96" s="20"/>
+      <c r="O96" s="24"/>
       <c r="P96" s="24"/>
       <c r="Q96" s="24"/>
       <c r="R96" s="24"/>
@@ -5473,48 +5470,49 @@
       <c r="T96" s="24"/>
       <c r="U96" s="24"/>
       <c r="V96" s="24"/>
-      <c r="W96" s="24"/>
     </row>
-    <row r="97" spans="1:16384" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16383" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15">
         <v>43880</v>
       </c>
-      <c r="B97" s="11" t="s">
-        <v>0</v>
+      <c r="B97" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Wednesday</v>
       </c>
       <c r="C97" s="38"/>
       <c r="D97" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38"/>
       <c r="G97" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="6">
-        <f t="shared" si="9"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J97" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K97" s="6">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L97" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K97" s="6">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L97" s="43">
-        <f t="shared" si="14"/>
-        <v>55.533333333333331</v>
+        <v>62.5</v>
       </c>
       <c r="M97" s="1">
-        <f t="shared" si="12"/>
-        <v>6</v>
+        <f t="shared" si="11"/>
+        <v>8</v>
       </c>
       <c r="N97" s="19"/>
+      <c r="O97" s="24"/>
       <c r="P97" s="24"/>
       <c r="Q97" s="24"/>
       <c r="R97" s="24"/>
@@ -5522,47 +5520,48 @@
       <c r="T97" s="24"/>
       <c r="U97" s="24"/>
       <c r="V97" s="24"/>
-      <c r="W97" s="24"/>
     </row>
-    <row r="98" spans="1:16384" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16383" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="35">
         <v>43881</v>
       </c>
-      <c r="B98" s="7" t="s">
-        <v>1</v>
+      <c r="B98" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Thursday</v>
       </c>
       <c r="C98" s="8"/>
       <c r="D98" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>N</v>
+        <f t="shared" si="9"/>
+        <v>Y</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H98" s="49"/>
       <c r="I98" s="9">
-        <f t="shared" ref="I98:I104" si="16">$S$1</f>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J98" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K98" s="9">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L98" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K98" s="9">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L98" s="46">
-        <f t="shared" si="14"/>
-        <v>55.533333333333331</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="M98" s="9">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="O98" s="7"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
@@ -5570,47 +5569,48 @@
       <c r="T98" s="7"/>
       <c r="U98" s="7"/>
       <c r="V98" s="7"/>
-      <c r="W98" s="7"/>
     </row>
-    <row r="99" spans="1:16384" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16383" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="35">
         <v>43882</v>
       </c>
-      <c r="B99" s="12" t="s">
-        <v>2</v>
+      <c r="B99" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>Friday</v>
       </c>
       <c r="C99" s="39"/>
       <c r="D99" s="31" t="str">
-        <f t="shared" si="10"/>
-        <v>N</v>
+        <f t="shared" si="9"/>
+        <v>Y</v>
       </c>
       <c r="E99" s="39"/>
       <c r="F99" s="39"/>
       <c r="G99" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H99" s="49"/>
       <c r="I99" s="9">
-        <f t="shared" si="16"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J99" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K99" s="9">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L99" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K99" s="9">
-        <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L99" s="46">
-        <f t="shared" si="14"/>
-        <v>55.533333333333331</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="M99" s="9">
-        <f t="shared" ref="M99:M104" si="17">IF(D99="Y",M98-1,M98)</f>
+        <f t="shared" ref="M99:M104" si="15">IF(D99="Y",M98-1,M98)</f>
         <v>6</v>
       </c>
+      <c r="O99" s="7"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
@@ -5618,49 +5618,49 @@
       <c r="T99" s="7"/>
       <c r="U99" s="7"/>
       <c r="V99" s="7"/>
-      <c r="W99" s="7"/>
     </row>
-    <row r="100" spans="1:16384" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16383" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15">
         <v>43883</v>
       </c>
-      <c r="B100" s="11" t="s">
-        <v>3</v>
+      <c r="B100" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Saturday</v>
       </c>
       <c r="C100" s="38"/>
       <c r="D100" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E100" s="38"/>
       <c r="F100" s="38"/>
       <c r="G100" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H100" s="41"/>
       <c r="I100" s="6">
-        <f t="shared" si="16"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J100" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K100" s="6">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L100" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K100" s="41">
+        <v>100</v>
+      </c>
+      <c r="M100" s="48">
         <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L100" s="6">
-        <f t="shared" si="14"/>
-        <v>66.64</v>
-      </c>
-      <c r="M100" s="48">
-        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="N100" s="20"/>
-      <c r="O100" s="20"/>
+      <c r="O100" s="24"/>
       <c r="P100" s="24"/>
       <c r="Q100" s="24"/>
       <c r="R100" s="24"/>
@@ -5668,49 +5668,49 @@
       <c r="T100" s="24"/>
       <c r="U100" s="24"/>
       <c r="V100" s="24"/>
-      <c r="W100" s="24"/>
     </row>
-    <row r="101" spans="1:16384" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16383" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="15">
         <v>43884</v>
       </c>
-      <c r="B101" s="11" t="s">
-        <v>4</v>
+      <c r="B101" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Sunday</v>
       </c>
       <c r="C101" s="38"/>
       <c r="D101" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E101" s="38"/>
       <c r="F101" s="38"/>
       <c r="G101" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H101" s="41"/>
       <c r="I101" s="6">
-        <f t="shared" si="16"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J101" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K101" s="6">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L101" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K101" s="41">
+        <v>125</v>
+      </c>
+      <c r="M101" s="48">
         <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L101" s="6">
-        <f t="shared" si="14"/>
-        <v>83.3</v>
-      </c>
-      <c r="M101" s="48">
-        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="N101" s="20"/>
-      <c r="O101" s="20"/>
+      <c r="O101" s="24"/>
       <c r="P101" s="24"/>
       <c r="Q101" s="24"/>
       <c r="R101" s="24"/>
@@ -5718,49 +5718,49 @@
       <c r="T101" s="24"/>
       <c r="U101" s="24"/>
       <c r="V101" s="24"/>
-      <c r="W101" s="24"/>
     </row>
-    <row r="102" spans="1:16384" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16383" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="15">
         <v>43885</v>
       </c>
-      <c r="B102" s="11" t="s">
-        <v>5</v>
+      <c r="B102" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Monday</v>
       </c>
       <c r="C102" s="38"/>
       <c r="D102" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E102" s="38"/>
       <c r="F102" s="38"/>
       <c r="G102" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H102" s="41"/>
       <c r="I102" s="6">
-        <f t="shared" si="16"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J102" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K102" s="6">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L102" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K102" s="41">
+        <v>166.66666666666666</v>
+      </c>
+      <c r="M102" s="48">
         <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L102" s="43">
-        <f t="shared" si="14"/>
-        <v>111.06666666666666</v>
-      </c>
-      <c r="M102" s="48">
-        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="N102" s="20"/>
-      <c r="O102" s="20"/>
+      <c r="O102" s="24"/>
       <c r="P102" s="24"/>
       <c r="Q102" s="24"/>
       <c r="R102" s="24"/>
@@ -5768,49 +5768,49 @@
       <c r="T102" s="24"/>
       <c r="U102" s="24"/>
       <c r="V102" s="24"/>
-      <c r="W102" s="24"/>
     </row>
-    <row r="103" spans="1:16384" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16383" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="15">
         <v>43886</v>
       </c>
-      <c r="B103" s="11" t="s">
-        <v>6</v>
+      <c r="B103" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Tuesday</v>
       </c>
       <c r="C103" s="38"/>
       <c r="D103" s="30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E103" s="38"/>
       <c r="F103" s="38"/>
       <c r="G103" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H103" s="41"/>
       <c r="I103" s="6">
-        <f t="shared" si="16"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J103" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K103" s="6">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L103" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K103" s="41">
+        <v>250</v>
+      </c>
+      <c r="M103" s="48">
         <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L103" s="6">
-        <f t="shared" si="14"/>
-        <v>166.6</v>
-      </c>
-      <c r="M103" s="48">
-        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="N103" s="20"/>
-      <c r="O103" s="20"/>
+      <c r="O103" s="24"/>
       <c r="P103" s="24"/>
       <c r="Q103" s="24"/>
       <c r="R103" s="24"/>
@@ -5818,49 +5818,49 @@
       <c r="T103" s="24"/>
       <c r="U103" s="24"/>
       <c r="V103" s="24"/>
-      <c r="W103" s="24"/>
     </row>
-    <row r="104" spans="1:16384" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16383" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="15">
         <v>43887</v>
       </c>
-      <c r="B104" s="14" t="s">
-        <v>0</v>
+      <c r="B104" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>Wednesday</v>
       </c>
       <c r="C104" s="40"/>
       <c r="D104" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
       <c r="E104" s="40"/>
       <c r="F104" s="40"/>
       <c r="G104" s="51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H104" s="50"/>
       <c r="I104" s="51">
-        <f t="shared" si="16"/>
-        <v>333.2</v>
+        <f>$R$1</f>
+        <v>500</v>
       </c>
       <c r="J104" s="51">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K104" s="51">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="L104" s="65">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K104" s="50">
+        <v>500</v>
+      </c>
+      <c r="M104" s="52">
         <f t="shared" si="15"/>
-        <v>333.2</v>
-      </c>
-      <c r="L104" s="51">
-        <f t="shared" si="14"/>
-        <v>333.2</v>
-      </c>
-      <c r="M104" s="52">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="N104" s="22"/>
-      <c r="O104" s="22"/>
+      <c r="O104" s="24"/>
       <c r="P104" s="24"/>
       <c r="Q104" s="24"/>
       <c r="R104" s="24"/>
@@ -5868,9 +5868,8 @@
       <c r="T104" s="24"/>
       <c r="U104" s="24"/>
       <c r="V104" s="24"/>
-      <c r="W104" s="24"/>
     </row>
-    <row r="105" spans="1:16384" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16383" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15"/>
       <c r="B105" s="16"/>
       <c r="C105" s="17"/>
@@ -5879,11 +5878,11 @@
       <c r="F105" s="18"/>
       <c r="G105" s="53"/>
       <c r="H105" s="24"/>
-      <c r="I105" s="58"/>
-      <c r="J105" s="59"/>
-      <c r="K105" s="24"/>
+      <c r="I105" s="56"/>
+      <c r="J105" s="57"/>
+      <c r="K105" s="57"/>
       <c r="L105" s="24"/>
-      <c r="M105" s="59"/>
+      <c r="M105" s="57"/>
       <c r="N105" s="53"/>
       <c r="O105" s="24"/>
       <c r="P105" s="24"/>
@@ -5893,7 +5892,7 @@
       <c r="T105" s="24"/>
       <c r="U105" s="24"/>
       <c r="V105" s="24"/>
-      <c r="W105" s="24"/>
+      <c r="W105" s="53"/>
       <c r="X105" s="53"/>
       <c r="Y105" s="53"/>
       <c r="Z105" s="53"/>
@@ -22254,9 +22253,8 @@
       <c r="XFA105" s="53"/>
       <c r="XFB105" s="53"/>
       <c r="XFC105" s="53"/>
-      <c r="XFD105" s="53"/>
     </row>
-    <row r="106" spans="1:16384" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16383" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15"/>
       <c r="B106" s="16"/>
       <c r="C106" s="17"/>
@@ -22265,11 +22263,11 @@
       <c r="F106" s="18"/>
       <c r="G106" s="53"/>
       <c r="H106" s="24"/>
-      <c r="I106" s="58"/>
-      <c r="J106" s="59"/>
-      <c r="K106" s="24"/>
+      <c r="I106" s="56"/>
+      <c r="J106" s="57"/>
+      <c r="K106" s="57"/>
       <c r="L106" s="24"/>
-      <c r="M106" s="59"/>
+      <c r="M106" s="57"/>
       <c r="N106" s="53"/>
       <c r="O106" s="24"/>
       <c r="P106" s="24"/>
@@ -22279,7 +22277,7 @@
       <c r="T106" s="24"/>
       <c r="U106" s="24"/>
       <c r="V106" s="24"/>
-      <c r="W106" s="24"/>
+      <c r="W106" s="53"/>
       <c r="X106" s="53"/>
       <c r="Y106" s="53"/>
       <c r="Z106" s="53"/>
@@ -38640,9 +38638,8 @@
       <c r="XFA106" s="53"/>
       <c r="XFB106" s="53"/>
       <c r="XFC106" s="53"/>
-      <c r="XFD106" s="53"/>
     </row>
-    <row r="107" spans="1:16384" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16383" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
       <c r="B107" s="16"/>
       <c r="C107" s="17"/>
@@ -38650,11 +38647,11 @@
       <c r="E107" s="18"/>
       <c r="F107" s="18"/>
       <c r="H107" s="24"/>
-      <c r="I107" s="58"/>
-      <c r="J107" s="59"/>
-      <c r="K107" s="24"/>
+      <c r="I107" s="56"/>
+      <c r="J107" s="57"/>
+      <c r="K107" s="57"/>
       <c r="L107" s="24"/>
-      <c r="M107" s="59"/>
+      <c r="M107" s="57"/>
       <c r="O107" s="24"/>
       <c r="P107" s="24"/>
       <c r="Q107" s="24"/>
@@ -38663,23 +38660,22 @@
       <c r="T107" s="24"/>
       <c r="U107" s="24"/>
       <c r="V107" s="24"/>
-      <c r="W107" s="24"/>
     </row>
-    <row r="108" spans="1:16384" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16383" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15"/>
       <c r="B108" s="16"/>
       <c r="C108" s="17"/>
       <c r="D108" s="18"/>
       <c r="E108" s="18"/>
       <c r="F108" s="18"/>
-      <c r="G108" s="58"/>
-      <c r="H108" s="60"/>
-      <c r="I108" s="58"/>
-      <c r="J108" s="61"/>
-      <c r="K108" s="59"/>
-      <c r="L108" s="62"/>
-      <c r="M108" s="63"/>
-      <c r="N108" s="58"/>
+      <c r="G108" s="56"/>
+      <c r="H108" s="58"/>
+      <c r="I108" s="56"/>
+      <c r="J108" s="59"/>
+      <c r="K108" s="57"/>
+      <c r="L108" s="60"/>
+      <c r="M108" s="61"/>
+      <c r="N108" s="56"/>
       <c r="O108" s="24"/>
       <c r="P108" s="24"/>
       <c r="Q108" s="24"/>
@@ -38688,23 +38684,22 @@
       <c r="T108" s="24"/>
       <c r="U108" s="24"/>
       <c r="V108" s="24"/>
-      <c r="W108" s="24"/>
     </row>
-    <row r="109" spans="1:16384" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16383" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15"/>
       <c r="B109" s="16"/>
       <c r="C109" s="17"/>
       <c r="D109" s="18"/>
       <c r="E109" s="18"/>
       <c r="F109" s="18"/>
-      <c r="G109" s="58"/>
-      <c r="H109" s="60"/>
-      <c r="I109" s="58"/>
-      <c r="J109" s="61"/>
-      <c r="K109" s="59"/>
-      <c r="L109" s="62"/>
-      <c r="M109" s="63"/>
-      <c r="N109" s="58"/>
+      <c r="G109" s="56"/>
+      <c r="H109" s="58"/>
+      <c r="I109" s="56"/>
+      <c r="J109" s="59"/>
+      <c r="K109" s="57"/>
+      <c r="L109" s="60"/>
+      <c r="M109" s="61"/>
+      <c r="N109" s="56"/>
       <c r="O109" s="24"/>
       <c r="P109" s="24"/>
       <c r="Q109" s="24"/>
@@ -38713,9 +38708,8 @@
       <c r="T109" s="24"/>
       <c r="U109" s="24"/>
       <c r="V109" s="24"/>
-      <c r="W109" s="24"/>
     </row>
-    <row r="110" spans="1:16384" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16383" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15"/>
       <c r="B110" s="16"/>
       <c r="C110" s="17"/>
@@ -38723,11 +38717,11 @@
       <c r="E110" s="18"/>
       <c r="F110" s="18"/>
       <c r="H110" s="24"/>
-      <c r="I110" s="58"/>
-      <c r="J110" s="59"/>
-      <c r="K110" s="24"/>
+      <c r="I110" s="56"/>
+      <c r="J110" s="57"/>
+      <c r="K110" s="57"/>
       <c r="L110" s="24"/>
-      <c r="M110" s="59"/>
+      <c r="M110" s="57"/>
       <c r="O110" s="24"/>
       <c r="P110" s="24"/>
       <c r="Q110" s="24"/>
@@ -38736,9 +38730,8 @@
       <c r="T110" s="24"/>
       <c r="U110" s="24"/>
       <c r="V110" s="24"/>
-      <c r="W110" s="24"/>
     </row>
-    <row r="111" spans="1:16384" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16383" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15"/>
       <c r="B111" s="16"/>
       <c r="C111" s="17"/>
@@ -38746,11 +38739,11 @@
       <c r="E111" s="18"/>
       <c r="F111" s="18"/>
       <c r="H111" s="24"/>
-      <c r="I111" s="58"/>
-      <c r="J111" s="59"/>
-      <c r="K111" s="24"/>
+      <c r="I111" s="56"/>
+      <c r="J111" s="57"/>
+      <c r="K111" s="57"/>
       <c r="L111" s="24"/>
-      <c r="M111" s="59"/>
+      <c r="M111" s="57"/>
       <c r="O111" s="24"/>
       <c r="P111" s="24"/>
       <c r="Q111" s="24"/>
@@ -38759,23 +38752,22 @@
       <c r="T111" s="24"/>
       <c r="U111" s="24"/>
       <c r="V111" s="24"/>
-      <c r="W111" s="24"/>
     </row>
-    <row r="112" spans="1:16384" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16383" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="15"/>
       <c r="B112" s="16"/>
       <c r="C112" s="17"/>
       <c r="D112" s="18"/>
       <c r="E112" s="18"/>
       <c r="F112" s="18"/>
-      <c r="G112" s="58"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="58"/>
-      <c r="J112" s="61"/>
-      <c r="K112" s="59"/>
-      <c r="L112" s="62"/>
-      <c r="M112" s="63"/>
-      <c r="N112" s="58"/>
+      <c r="G112" s="56"/>
+      <c r="H112" s="58"/>
+      <c r="I112" s="56"/>
+      <c r="J112" s="59"/>
+      <c r="K112" s="57"/>
+      <c r="L112" s="60"/>
+      <c r="M112" s="61"/>
+      <c r="N112" s="56"/>
       <c r="O112" s="24"/>
       <c r="P112" s="24"/>
       <c r="Q112" s="24"/>
@@ -38784,23 +38776,22 @@
       <c r="T112" s="24"/>
       <c r="U112" s="24"/>
       <c r="V112" s="24"/>
-      <c r="W112" s="24"/>
     </row>
-    <row r="113" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
       <c r="B113" s="16"/>
       <c r="C113" s="17"/>
       <c r="D113" s="18"/>
       <c r="E113" s="18"/>
       <c r="F113" s="18"/>
-      <c r="G113" s="58"/>
-      <c r="H113" s="60"/>
-      <c r="I113" s="58"/>
-      <c r="J113" s="61"/>
-      <c r="K113" s="59"/>
-      <c r="L113" s="62"/>
-      <c r="M113" s="63"/>
-      <c r="N113" s="58"/>
+      <c r="G113" s="56"/>
+      <c r="H113" s="58"/>
+      <c r="I113" s="56"/>
+      <c r="J113" s="59"/>
+      <c r="K113" s="57"/>
+      <c r="L113" s="60"/>
+      <c r="M113" s="61"/>
+      <c r="N113" s="56"/>
       <c r="O113" s="24"/>
       <c r="P113" s="24"/>
       <c r="Q113" s="24"/>
@@ -38809,9 +38800,8 @@
       <c r="T113" s="24"/>
       <c r="U113" s="24"/>
       <c r="V113" s="24"/>
-      <c r="W113" s="24"/>
     </row>
-    <row r="114" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="15"/>
       <c r="B114" s="16"/>
       <c r="C114" s="17"/>
@@ -38821,7 +38811,7 @@
       <c r="H114" s="17"/>
       <c r="I114" s="33"/>
       <c r="J114" s="18"/>
-      <c r="K114" s="17"/>
+      <c r="K114" s="18"/>
       <c r="L114" s="17"/>
       <c r="M114" s="18"/>
       <c r="O114" s="17"/>
@@ -38832,9 +38822,8 @@
       <c r="T114" s="17"/>
       <c r="U114" s="17"/>
       <c r="V114" s="17"/>
-      <c r="W114" s="17"/>
     </row>
-    <row r="115" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="15"/>
       <c r="B115" s="11"/>
       <c r="C115" s="29"/>
@@ -38845,11 +38834,11 @@
       <c r="H115"/>
       <c r="I115" s="5"/>
       <c r="J115" s="3"/>
-      <c r="K115"/>
+      <c r="K115" s="3"/>
       <c r="L115"/>
       <c r="M115" s="18"/>
       <c r="N115" s="20"/>
-      <c r="O115"/>
+      <c r="O115" s="24"/>
       <c r="P115" s="24"/>
       <c r="Q115" s="24"/>
       <c r="R115" s="24"/>
@@ -38857,9 +38846,8 @@
       <c r="T115" s="24"/>
       <c r="U115" s="24"/>
       <c r="V115" s="24"/>
-      <c r="W115" s="24"/>
     </row>
-    <row r="116" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="15"/>
       <c r="B116" s="11"/>
       <c r="C116" s="29"/>
@@ -38870,11 +38858,11 @@
       <c r="H116"/>
       <c r="I116" s="5"/>
       <c r="J116" s="3"/>
-      <c r="K116"/>
+      <c r="K116" s="3"/>
       <c r="L116"/>
       <c r="M116" s="18"/>
       <c r="N116" s="20"/>
-      <c r="O116"/>
+      <c r="O116" s="24"/>
       <c r="P116" s="24"/>
       <c r="Q116" s="24"/>
       <c r="R116" s="24"/>
@@ -38882,9 +38870,8 @@
       <c r="T116" s="24"/>
       <c r="U116" s="24"/>
       <c r="V116" s="24"/>
-      <c r="W116" s="24"/>
     </row>
-    <row r="117" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="15"/>
       <c r="B117" s="11"/>
       <c r="C117" s="29"/>
@@ -38895,11 +38882,11 @@
       <c r="H117"/>
       <c r="I117" s="5"/>
       <c r="J117" s="3"/>
-      <c r="K117"/>
+      <c r="K117" s="3"/>
       <c r="L117"/>
       <c r="M117" s="18"/>
       <c r="N117" s="20"/>
-      <c r="O117"/>
+      <c r="O117" s="24"/>
       <c r="P117" s="24"/>
       <c r="Q117" s="24"/>
       <c r="R117" s="24"/>
@@ -38907,9 +38894,8 @@
       <c r="T117" s="24"/>
       <c r="U117" s="24"/>
       <c r="V117" s="24"/>
-      <c r="W117" s="24"/>
     </row>
-    <row r="118" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
       <c r="B118" s="11"/>
       <c r="C118" s="29"/>
@@ -38920,11 +38906,11 @@
       <c r="H118"/>
       <c r="I118" s="5"/>
       <c r="J118" s="3"/>
-      <c r="K118"/>
+      <c r="K118" s="3"/>
       <c r="L118"/>
       <c r="M118" s="18"/>
       <c r="N118" s="20"/>
-      <c r="O118"/>
+      <c r="O118" s="24"/>
       <c r="P118" s="24"/>
       <c r="Q118" s="24"/>
       <c r="R118" s="24"/>
@@ -38932,10 +38918,9 @@
       <c r="T118" s="24"/>
       <c r="U118" s="24"/>
       <c r="V118" s="24"/>
-      <c r="W118" s="24"/>
     </row>
-    <row r="119" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="64"/>
+    <row r="119" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="62"/>
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
       <c r="D119" s="18"/>
@@ -38944,7 +38929,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="33"/>
       <c r="J119" s="18"/>
-      <c r="K119" s="17"/>
+      <c r="K119" s="18"/>
       <c r="L119" s="17"/>
       <c r="M119" s="18"/>
       <c r="O119" s="17"/>
@@ -38955,10 +38940,9 @@
       <c r="T119" s="17"/>
       <c r="U119" s="17"/>
       <c r="V119" s="17"/>
-      <c r="W119" s="17"/>
     </row>
-    <row r="120" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="64"/>
+    <row r="120" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="62"/>
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
       <c r="D120" s="18"/>
@@ -38967,7 +38951,7 @@
       <c r="H120" s="17"/>
       <c r="I120" s="33"/>
       <c r="J120" s="18"/>
-      <c r="K120" s="17"/>
+      <c r="K120" s="18"/>
       <c r="L120" s="17"/>
       <c r="M120" s="18"/>
       <c r="O120" s="17"/>
@@ -38978,9 +38962,8 @@
       <c r="T120" s="17"/>
       <c r="U120" s="17"/>
       <c r="V120" s="17"/>
-      <c r="W120" s="17"/>
     </row>
-    <row r="121" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="15"/>
       <c r="B121" s="16"/>
       <c r="C121" s="17"/>
@@ -38988,9 +38971,9 @@
       <c r="E121" s="18"/>
       <c r="F121" s="18"/>
       <c r="H121" s="24"/>
-      <c r="I121" s="58"/>
-      <c r="J121" s="59"/>
-      <c r="K121" s="24"/>
+      <c r="I121" s="56"/>
+      <c r="J121" s="57"/>
+      <c r="K121" s="57"/>
       <c r="L121" s="24"/>
       <c r="M121" s="18"/>
       <c r="O121" s="24"/>
@@ -39001,9 +38984,8 @@
       <c r="T121" s="24"/>
       <c r="U121" s="24"/>
       <c r="V121" s="24"/>
-      <c r="W121" s="24"/>
     </row>
-    <row r="122" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="15"/>
       <c r="B122" s="16"/>
       <c r="C122" s="17"/>
@@ -39011,9 +38993,9 @@
       <c r="E122" s="18"/>
       <c r="F122" s="18"/>
       <c r="H122" s="24"/>
-      <c r="I122" s="58"/>
-      <c r="J122" s="59"/>
-      <c r="K122" s="24"/>
+      <c r="I122" s="56"/>
+      <c r="J122" s="57"/>
+      <c r="K122" s="57"/>
       <c r="L122" s="24"/>
       <c r="M122" s="18"/>
       <c r="O122" s="24"/>
@@ -39024,9 +39006,8 @@
       <c r="T122" s="24"/>
       <c r="U122" s="24"/>
       <c r="V122" s="24"/>
-      <c r="W122" s="24"/>
     </row>
-    <row r="123" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="15"/>
       <c r="B123" s="16"/>
       <c r="C123" s="17"/>
@@ -39034,9 +39015,9 @@
       <c r="E123" s="18"/>
       <c r="F123" s="18"/>
       <c r="H123" s="24"/>
-      <c r="I123" s="58"/>
-      <c r="J123" s="59"/>
-      <c r="K123" s="24"/>
+      <c r="I123" s="56"/>
+      <c r="J123" s="57"/>
+      <c r="K123" s="57"/>
       <c r="L123" s="24"/>
       <c r="M123" s="18"/>
       <c r="O123" s="24"/>
@@ -39047,19 +39028,18 @@
       <c r="T123" s="24"/>
       <c r="U123" s="24"/>
       <c r="V123" s="24"/>
-      <c r="W123" s="24"/>
     </row>
-    <row r="124" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="64"/>
+    <row r="124" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="62"/>
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
       <c r="D124" s="18"/>
       <c r="E124" s="18"/>
       <c r="F124" s="18"/>
       <c r="H124" s="24"/>
-      <c r="I124" s="58"/>
-      <c r="J124" s="59"/>
-      <c r="K124" s="24"/>
+      <c r="I124" s="56"/>
+      <c r="J124" s="57"/>
+      <c r="K124" s="57"/>
       <c r="L124" s="24"/>
       <c r="M124" s="18"/>
       <c r="O124" s="24"/>
@@ -39070,19 +39050,18 @@
       <c r="T124" s="24"/>
       <c r="U124" s="24"/>
       <c r="V124" s="24"/>
-      <c r="W124" s="24"/>
     </row>
-    <row r="125" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="64"/>
+    <row r="125" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="62"/>
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
       <c r="D125" s="18"/>
       <c r="E125" s="18"/>
       <c r="F125" s="18"/>
       <c r="H125" s="24"/>
-      <c r="I125" s="58"/>
-      <c r="J125" s="59"/>
-      <c r="K125" s="24"/>
+      <c r="I125" s="56"/>
+      <c r="J125" s="57"/>
+      <c r="K125" s="57"/>
       <c r="L125" s="24"/>
       <c r="M125" s="18"/>
       <c r="O125" s="24"/>
@@ -39093,10 +39072,9 @@
       <c r="T125" s="24"/>
       <c r="U125" s="24"/>
       <c r="V125" s="24"/>
-      <c r="W125" s="24"/>
     </row>
-    <row r="126" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="64"/>
+    <row r="126" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="62"/>
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
       <c r="D126" s="18"/>
@@ -39105,7 +39083,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="33"/>
       <c r="J126" s="18"/>
-      <c r="K126" s="17"/>
+      <c r="K126" s="18"/>
       <c r="L126" s="17"/>
       <c r="M126" s="18"/>
       <c r="O126" s="17"/>
@@ -39116,10 +39094,9 @@
       <c r="T126" s="17"/>
       <c r="U126" s="17"/>
       <c r="V126" s="17"/>
-      <c r="W126" s="17"/>
     </row>
-    <row r="127" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="64"/>
+    <row r="127" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="62"/>
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
       <c r="D127" s="18"/>
@@ -39128,7 +39105,7 @@
       <c r="H127" s="17"/>
       <c r="I127" s="33"/>
       <c r="J127" s="18"/>
-      <c r="K127" s="17"/>
+      <c r="K127" s="18"/>
       <c r="L127" s="17"/>
       <c r="M127" s="18"/>
       <c r="O127" s="17"/>
@@ -39139,9 +39116,8 @@
       <c r="T127" s="17"/>
       <c r="U127" s="17"/>
       <c r="V127" s="17"/>
-      <c r="W127" s="17"/>
     </row>
-    <row r="128" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="15"/>
       <c r="B128" s="16"/>
       <c r="C128" s="17"/>
@@ -39149,9 +39125,9 @@
       <c r="E128" s="18"/>
       <c r="F128" s="18"/>
       <c r="H128" s="24"/>
-      <c r="I128" s="58"/>
-      <c r="J128" s="59"/>
-      <c r="K128" s="24"/>
+      <c r="I128" s="56"/>
+      <c r="J128" s="57"/>
+      <c r="K128" s="57"/>
       <c r="L128" s="24"/>
       <c r="M128" s="18"/>
       <c r="O128" s="24"/>
@@ -39162,9 +39138,8 @@
       <c r="T128" s="24"/>
       <c r="U128" s="24"/>
       <c r="V128" s="24"/>
-      <c r="W128" s="24"/>
     </row>
-    <row r="129" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="15"/>
       <c r="B129" s="16"/>
       <c r="C129" s="17"/>
@@ -39172,9 +39147,9 @@
       <c r="E129" s="18"/>
       <c r="F129" s="18"/>
       <c r="H129" s="24"/>
-      <c r="I129" s="58"/>
-      <c r="J129" s="59"/>
-      <c r="K129" s="24"/>
+      <c r="I129" s="56"/>
+      <c r="J129" s="57"/>
+      <c r="K129" s="57"/>
       <c r="L129" s="24"/>
       <c r="M129" s="18"/>
       <c r="O129" s="24"/>
@@ -39185,9 +39160,8 @@
       <c r="T129" s="24"/>
       <c r="U129" s="24"/>
       <c r="V129" s="24"/>
-      <c r="W129" s="24"/>
     </row>
-    <row r="130" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="15"/>
       <c r="B130" s="16"/>
       <c r="C130" s="17"/>
@@ -39195,9 +39169,9 @@
       <c r="E130" s="18"/>
       <c r="F130" s="18"/>
       <c r="H130" s="24"/>
-      <c r="I130" s="58"/>
-      <c r="J130" s="59"/>
-      <c r="K130" s="24"/>
+      <c r="I130" s="56"/>
+      <c r="J130" s="57"/>
+      <c r="K130" s="57"/>
       <c r="L130" s="24"/>
       <c r="M130" s="18"/>
       <c r="O130" s="24"/>
@@ -39208,9 +39182,8 @@
       <c r="T130" s="24"/>
       <c r="U130" s="24"/>
       <c r="V130" s="24"/>
-      <c r="W130" s="24"/>
     </row>
-    <row r="131" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:22" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="15"/>
       <c r="B131" s="16"/>
       <c r="C131" s="17"/>
@@ -39218,11 +39191,11 @@
       <c r="E131" s="18"/>
       <c r="F131" s="18"/>
       <c r="H131" s="24"/>
-      <c r="I131" s="58"/>
-      <c r="J131" s="59"/>
-      <c r="K131" s="24"/>
+      <c r="I131" s="56"/>
+      <c r="J131" s="57"/>
+      <c r="K131" s="57"/>
       <c r="L131" s="24"/>
-      <c r="M131" s="59"/>
+      <c r="M131" s="57"/>
       <c r="O131" s="24"/>
       <c r="P131" s="24"/>
       <c r="Q131" s="24"/>
@@ -39231,9 +39204,8 @@
       <c r="T131" s="24"/>
       <c r="U131" s="24"/>
       <c r="V131" s="24"/>
-      <c r="W131" s="24"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" s="15"/>
       <c r="B132" s="16"/>
       <c r="C132" s="17"/>
@@ -39242,15 +39214,14 @@
       <c r="F132" s="18"/>
       <c r="G132" s="53"/>
       <c r="H132" s="24"/>
-      <c r="I132" s="58"/>
-      <c r="J132" s="59"/>
-      <c r="K132" s="24"/>
+      <c r="I132" s="56"/>
+      <c r="J132" s="57"/>
+      <c r="K132" s="57"/>
       <c r="L132" s="24"/>
-      <c r="M132" s="59"/>
+      <c r="M132" s="57"/>
       <c r="N132" s="53"/>
-      <c r="O132" s="24"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133" s="15"/>
       <c r="B133" s="16"/>
       <c r="C133" s="17"/>
@@ -39259,15 +39230,14 @@
       <c r="F133" s="17"/>
       <c r="G133" s="53"/>
       <c r="H133" s="24"/>
-      <c r="I133" s="58"/>
-      <c r="J133" s="59"/>
-      <c r="K133" s="24"/>
+      <c r="I133" s="56"/>
+      <c r="J133" s="57"/>
+      <c r="K133" s="57"/>
       <c r="L133" s="24"/>
-      <c r="M133" s="59"/>
+      <c r="M133" s="57"/>
       <c r="N133" s="53"/>
-      <c r="O133" s="24"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134" s="15"/>
       <c r="B134" s="16"/>
       <c r="C134" s="17"/>
@@ -39276,15 +39246,14 @@
       <c r="F134" s="17"/>
       <c r="G134" s="53"/>
       <c r="H134" s="24"/>
-      <c r="I134" s="58"/>
-      <c r="J134" s="59"/>
-      <c r="K134" s="24"/>
+      <c r="I134" s="56"/>
+      <c r="J134" s="57"/>
+      <c r="K134" s="57"/>
       <c r="L134" s="24"/>
-      <c r="M134" s="59"/>
+      <c r="M134" s="57"/>
       <c r="N134" s="53"/>
-      <c r="O134" s="24"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135" s="15"/>
       <c r="B135" s="16"/>
       <c r="C135" s="17"/>
@@ -39293,15 +39262,14 @@
       <c r="F135" s="17"/>
       <c r="G135" s="53"/>
       <c r="H135" s="24"/>
-      <c r="I135" s="58"/>
-      <c r="J135" s="59"/>
-      <c r="K135" s="24"/>
+      <c r="I135" s="56"/>
+      <c r="J135" s="57"/>
+      <c r="K135" s="57"/>
       <c r="L135" s="24"/>
-      <c r="M135" s="59"/>
+      <c r="M135" s="57"/>
       <c r="N135" s="53"/>
-      <c r="O135" s="24"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136" s="15"/>
       <c r="B136" s="16"/>
       <c r="C136" s="17"/>
@@ -39310,15 +39278,14 @@
       <c r="F136" s="17"/>
       <c r="G136" s="53"/>
       <c r="H136" s="24"/>
-      <c r="I136" s="58"/>
-      <c r="J136" s="59"/>
-      <c r="K136" s="24"/>
+      <c r="I136" s="56"/>
+      <c r="J136" s="57"/>
+      <c r="K136" s="57"/>
       <c r="L136" s="24"/>
-      <c r="M136" s="59"/>
+      <c r="M136" s="57"/>
       <c r="N136" s="53"/>
-      <c r="O136" s="24"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137" s="15"/>
       <c r="B137" s="16"/>
       <c r="C137" s="17"/>
@@ -39327,15 +39294,14 @@
       <c r="F137" s="17"/>
       <c r="G137" s="53"/>
       <c r="H137" s="24"/>
-      <c r="I137" s="58"/>
-      <c r="J137" s="59"/>
-      <c r="K137" s="24"/>
+      <c r="I137" s="56"/>
+      <c r="J137" s="57"/>
+      <c r="K137" s="57"/>
       <c r="L137" s="24"/>
-      <c r="M137" s="59"/>
+      <c r="M137" s="57"/>
       <c r="N137" s="53"/>
-      <c r="O137" s="24"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138" s="15"/>
       <c r="B138" s="16"/>
       <c r="C138" s="17"/>
@@ -39344,16 +39310,14 @@
       <c r="F138" s="17"/>
       <c r="G138" s="53"/>
       <c r="H138" s="24"/>
-      <c r="I138" s="58"/>
-      <c r="J138" s="59"/>
-      <c r="K138" s="24"/>
+      <c r="I138" s="56"/>
+      <c r="J138" s="57"/>
+      <c r="K138" s="57"/>
       <c r="L138" s="24"/>
-      <c r="M138" s="59"/>
+      <c r="M138" s="57"/>
       <c r="N138" s="53"/>
-      <c r="O138" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dEazZmKy5YrcUIGtONalj6ajLe7Rh78M6g0r5hB7t5OPk272esOC0f/ongcbW4MikKkxH2pHxVryCM0GyWNqdA==" saltValue="A09MXMpWJHhpZ/qqiFmpFw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>

--- a/WorkTracker.xlsx
+++ b/WorkTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gazda\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCF996B-3C36-473A-8752-4CBB3E315452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AF802E-D11E-4754-8407-877A08EC9F07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -630,7 +630,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L100" sqref="L100"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +742,7 @@
       </c>
       <c r="H2" s="41"/>
       <c r="I2" s="1">
-        <f>$R$1</f>
+        <f t="shared" ref="I2:I33" si="0">$R$1</f>
         <v>500</v>
       </c>
       <c r="J2" s="42">
@@ -776,23 +776,23 @@
         <v>43788</v>
       </c>
       <c r="B3" s="11" t="str">
-        <f t="shared" ref="B3:B66" si="0">TEXT(A3,"dddd")</f>
+        <f t="shared" ref="B3:B66" si="1">TEXT(A3,"dddd")</f>
         <v>Tuesday</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="30" t="str">
-        <f t="shared" ref="D3:D66" si="1">IF(OR(B3="Zaterdag",B3="Zondag",C3&lt;&gt;""),"N","Y")</f>
+        <f t="shared" ref="D3:D66" si="2">IF(OR(B3="Zaterdag",B3="Zondag",C3&lt;&gt;""),"N","Y")</f>
         <v>Y</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="38"/>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G66" si="2">F3-E3</f>
+        <f t="shared" ref="G3:G66" si="3">F3-E3</f>
         <v>0</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J3" s="42">
@@ -808,7 +808,7 @@
         <v>4.9019607843137258</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M34" si="3">IF(D3="Y",M2-1,M2)</f>
+        <f t="shared" ref="M3:M34" si="4">IF(D3="Y",M2-1,M2)</f>
         <v>102</v>
       </c>
       <c r="N3" s="19"/>
@@ -826,27 +826,27 @@
         <v>43789</v>
       </c>
       <c r="B4" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="38"/>
       <c r="G4" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J4" s="42">
-        <f t="shared" ref="J4:J67" si="4">G4/$R$1</f>
+        <f t="shared" ref="J4:J67" si="5">G4/$R$1</f>
         <v>0</v>
       </c>
       <c r="K4" s="6">
@@ -854,11 +854,11 @@
         <v>500</v>
       </c>
       <c r="L4" s="44">
-        <f t="shared" ref="L4:L67" si="5">K3/M4</f>
+        <f t="shared" ref="L4:L67" si="6">K3/M4</f>
         <v>4.9504950495049505</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
       <c r="N4" s="19"/>
@@ -876,39 +876,39 @@
         <v>43788</v>
       </c>
       <c r="B5" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
       <c r="G5" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J5" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" ref="K5:K68" si="7">K4-G5</f>
+        <v>500</v>
+      </c>
+      <c r="L5" s="44">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="M5" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <f t="shared" ref="K5:K68" si="6">K4-G5</f>
-        <v>500</v>
-      </c>
-      <c r="L5" s="44">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="N5" s="5"/>
@@ -926,39 +926,39 @@
         <v>43789</v>
       </c>
       <c r="B6" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J6" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L6" s="44">
+        <f t="shared" si="6"/>
+        <v>5.0505050505050502</v>
+      </c>
+      <c r="M6" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L6" s="44">
-        <f t="shared" si="5"/>
-        <v>5.0505050505050502</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="N6" s="5"/>
@@ -976,39 +976,39 @@
         <v>43790</v>
       </c>
       <c r="B7" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J7" s="45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L7" s="46">
+        <f t="shared" si="6"/>
+        <v>5.1020408163265305</v>
+      </c>
+      <c r="M7" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L7" s="46">
-        <f t="shared" si="5"/>
-        <v>5.1020408163265305</v>
-      </c>
-      <c r="M7" s="9">
-        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="N7" s="8"/>
@@ -1026,39 +1026,39 @@
         <v>43791</v>
       </c>
       <c r="B8" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
       <c r="G8" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J8" s="45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L8" s="46">
+        <f t="shared" si="6"/>
+        <v>5.1546391752577323</v>
+      </c>
+      <c r="M8" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L8" s="46">
-        <f t="shared" si="5"/>
-        <v>5.1546391752577323</v>
-      </c>
-      <c r="M8" s="9">
-        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="N8" s="8"/>
@@ -1076,39 +1076,39 @@
         <v>43792</v>
       </c>
       <c r="B9" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J9" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L9" s="44">
+        <f t="shared" si="6"/>
+        <v>5.208333333333333</v>
+      </c>
+      <c r="M9" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L9" s="44">
-        <f t="shared" si="5"/>
-        <v>5.208333333333333</v>
-      </c>
-      <c r="M9" s="6">
-        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="N9" s="5"/>
@@ -1126,39 +1126,39 @@
         <v>43793</v>
       </c>
       <c r="B10" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
       <c r="G10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J10" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L10" s="44">
+        <f t="shared" si="6"/>
+        <v>5.2631578947368425</v>
+      </c>
+      <c r="M10" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L10" s="44">
-        <f t="shared" si="5"/>
-        <v>5.2631578947368425</v>
-      </c>
-      <c r="M10" s="6">
-        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="N10" s="5"/>
@@ -1176,39 +1176,39 @@
         <v>43794</v>
       </c>
       <c r="B11" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Monday</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
       <c r="G11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J11" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L11" s="44">
+        <f t="shared" si="6"/>
+        <v>5.3191489361702127</v>
+      </c>
+      <c r="M11" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L11" s="44">
-        <f t="shared" si="5"/>
-        <v>5.3191489361702127</v>
-      </c>
-      <c r="M11" s="6">
-        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="N11" s="5"/>
@@ -1226,39 +1226,39 @@
         <v>43795</v>
       </c>
       <c r="B12" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
       <c r="G12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J12" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L12" s="44">
+        <f t="shared" si="6"/>
+        <v>5.376344086021505</v>
+      </c>
+      <c r="M12" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="6">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L12" s="44">
-        <f t="shared" si="5"/>
-        <v>5.376344086021505</v>
-      </c>
-      <c r="M12" s="6">
-        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="N12" s="5"/>
@@ -1276,39 +1276,39 @@
         <v>43796</v>
       </c>
       <c r="B13" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
       <c r="G13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J13" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L13" s="44">
+        <f t="shared" si="6"/>
+        <v>5.4347826086956523</v>
+      </c>
+      <c r="M13" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="6">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L13" s="44">
-        <f t="shared" si="5"/>
-        <v>5.4347826086956523</v>
-      </c>
-      <c r="M13" s="6">
-        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="N13" s="5"/>
@@ -1326,39 +1326,39 @@
         <v>43797</v>
       </c>
       <c r="B14" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
       <c r="G14" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J14" s="45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L14" s="46">
+        <f t="shared" si="6"/>
+        <v>5.4945054945054945</v>
+      </c>
+      <c r="M14" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L14" s="46">
-        <f t="shared" si="5"/>
-        <v>5.4945054945054945</v>
-      </c>
-      <c r="M14" s="9">
-        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="N14" s="21"/>
@@ -1376,39 +1376,39 @@
         <v>43798</v>
       </c>
       <c r="B15" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
       <c r="G15" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J15" s="45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L15" s="46">
+        <f t="shared" si="6"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="M15" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L15" s="46">
-        <f t="shared" si="5"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="M15" s="9">
-        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="N15" s="8"/>
@@ -1426,39 +1426,39 @@
         <v>43799</v>
       </c>
       <c r="B16" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="38"/>
       <c r="G16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J16" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L16" s="44">
+        <f t="shared" si="6"/>
+        <v>5.617977528089888</v>
+      </c>
+      <c r="M16" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L16" s="44">
-        <f t="shared" si="5"/>
-        <v>5.617977528089888</v>
-      </c>
-      <c r="M16" s="6">
-        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="N16" s="5"/>
@@ -1476,39 +1476,39 @@
         <v>43800</v>
       </c>
       <c r="B17" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="38"/>
       <c r="G17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J17" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L17" s="44">
+        <f t="shared" si="6"/>
+        <v>5.6818181818181817</v>
+      </c>
+      <c r="M17" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="6">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L17" s="44">
-        <f t="shared" si="5"/>
-        <v>5.6818181818181817</v>
-      </c>
-      <c r="M17" s="6">
-        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="N17" s="5"/>
@@ -1526,39 +1526,39 @@
         <v>43801</v>
       </c>
       <c r="B18" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Monday</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
       <c r="G18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J18" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L18" s="44">
+        <f t="shared" si="6"/>
+        <v>5.7471264367816088</v>
+      </c>
+      <c r="M18" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="6">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L18" s="44">
-        <f t="shared" si="5"/>
-        <v>5.7471264367816088</v>
-      </c>
-      <c r="M18" s="6">
-        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="N18" s="5"/>
@@ -1576,39 +1576,39 @@
         <v>43802</v>
       </c>
       <c r="B19" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
       <c r="G19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J19" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L19" s="44">
+        <f t="shared" si="6"/>
+        <v>5.8139534883720927</v>
+      </c>
+      <c r="M19" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="6">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L19" s="44">
-        <f t="shared" si="5"/>
-        <v>5.8139534883720927</v>
-      </c>
-      <c r="M19" s="6">
-        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="N19" s="5"/>
@@ -1626,39 +1626,39 @@
         <v>43803</v>
       </c>
       <c r="B20" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
       <c r="G20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J20" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L20" s="44">
+        <f t="shared" si="6"/>
+        <v>5.882352941176471</v>
+      </c>
+      <c r="M20" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="6">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L20" s="44">
-        <f t="shared" si="5"/>
-        <v>5.882352941176471</v>
-      </c>
-      <c r="M20" s="6">
-        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="N20" s="5"/>
@@ -1676,39 +1676,39 @@
         <v>43804</v>
       </c>
       <c r="B21" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
       <c r="G21" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J21" s="45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L21" s="46">
+        <f t="shared" si="6"/>
+        <v>5.9523809523809526</v>
+      </c>
+      <c r="M21" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="9">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L21" s="46">
-        <f t="shared" si="5"/>
-        <v>5.9523809523809526</v>
-      </c>
-      <c r="M21" s="47">
-        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="N21" s="8"/>
@@ -1726,39 +1726,39 @@
         <v>43805</v>
       </c>
       <c r="B22" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
       <c r="G22" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J22" s="45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L22" s="46">
+        <f t="shared" si="6"/>
+        <v>6.024096385542169</v>
+      </c>
+      <c r="M22" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="9">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L22" s="46">
-        <f t="shared" si="5"/>
-        <v>6.024096385542169</v>
-      </c>
-      <c r="M22" s="9">
-        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="N22" s="8"/>
@@ -1776,39 +1776,39 @@
         <v>43806</v>
       </c>
       <c r="B23" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
       <c r="C23" s="38"/>
       <c r="D23" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
       <c r="G23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J23" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L23" s="44">
+        <f t="shared" si="6"/>
+        <v>6.0975609756097562</v>
+      </c>
+      <c r="M23" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="6">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L23" s="44">
-        <f t="shared" si="5"/>
-        <v>6.0975609756097562</v>
-      </c>
-      <c r="M23" s="6">
-        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="N23" s="5"/>
@@ -1826,39 +1826,39 @@
         <v>43807</v>
       </c>
       <c r="B24" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
       <c r="G24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J24" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L24" s="44">
+        <f t="shared" si="6"/>
+        <v>6.1728395061728394</v>
+      </c>
+      <c r="M24" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="6">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L24" s="44">
-        <f t="shared" si="5"/>
-        <v>6.1728395061728394</v>
-      </c>
-      <c r="M24" s="6">
-        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="N24" s="5"/>
@@ -1876,39 +1876,39 @@
         <v>43808</v>
       </c>
       <c r="B25" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Monday</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
       <c r="G25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J25" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L25" s="44">
+        <f t="shared" si="6"/>
+        <v>6.25</v>
+      </c>
+      <c r="M25" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="6">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L25" s="44">
-        <f t="shared" si="5"/>
-        <v>6.25</v>
-      </c>
-      <c r="M25" s="6">
-        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="N25" s="5"/>
@@ -1926,39 +1926,39 @@
         <v>43809</v>
       </c>
       <c r="B26" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
       <c r="G26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J26" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L26" s="44">
+        <f t="shared" si="6"/>
+        <v>6.3291139240506329</v>
+      </c>
+      <c r="M26" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="6">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L26" s="44">
-        <f t="shared" si="5"/>
-        <v>6.3291139240506329</v>
-      </c>
-      <c r="M26" s="6">
-        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="N26" s="5"/>
@@ -1976,39 +1976,39 @@
         <v>43810</v>
       </c>
       <c r="B27" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
       <c r="G27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J27" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L27" s="44">
+        <f t="shared" si="6"/>
+        <v>6.4102564102564106</v>
+      </c>
+      <c r="M27" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="6">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L27" s="44">
-        <f t="shared" si="5"/>
-        <v>6.4102564102564106</v>
-      </c>
-      <c r="M27" s="6">
-        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="N27" s="5"/>
@@ -2026,39 +2026,39 @@
         <v>43811</v>
       </c>
       <c r="B28" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J28" s="45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L28" s="46">
+        <f t="shared" si="6"/>
+        <v>6.4935064935064934</v>
+      </c>
+      <c r="M28" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="9">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L28" s="46">
-        <f t="shared" si="5"/>
-        <v>6.4935064935064934</v>
-      </c>
-      <c r="M28" s="9">
-        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="N28" s="8"/>
@@ -2076,39 +2076,39 @@
         <v>43812</v>
       </c>
       <c r="B29" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="C29" s="39"/>
       <c r="D29" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="39"/>
       <c r="G29" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J29" s="45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L29" s="46">
+        <f t="shared" si="6"/>
+        <v>6.5789473684210522</v>
+      </c>
+      <c r="M29" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="9">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L29" s="46">
-        <f t="shared" si="5"/>
-        <v>6.5789473684210522</v>
-      </c>
-      <c r="M29" s="9">
-        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="N29" s="8"/>
@@ -2126,39 +2126,39 @@
         <v>43813</v>
       </c>
       <c r="B30" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E30" s="38"/>
       <c r="F30" s="38"/>
       <c r="G30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J30" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L30" s="44">
+        <f t="shared" si="6"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="M30" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="6">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L30" s="44">
-        <f t="shared" si="5"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="M30" s="6">
-        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="N30" s="5"/>
@@ -2176,39 +2176,39 @@
         <v>43814</v>
       </c>
       <c r="B31" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E31" s="38"/>
       <c r="F31" s="38"/>
       <c r="G31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J31" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L31" s="44">
+        <f t="shared" si="6"/>
+        <v>6.756756756756757</v>
+      </c>
+      <c r="M31" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="6">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L31" s="44">
-        <f t="shared" si="5"/>
-        <v>6.756756756756757</v>
-      </c>
-      <c r="M31" s="6">
-        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="N31" s="5"/>
@@ -2226,39 +2226,39 @@
         <v>43815</v>
       </c>
       <c r="B32" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Monday</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E32" s="38"/>
       <c r="F32" s="38"/>
       <c r="G32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J32" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L32" s="44">
+        <f t="shared" si="6"/>
+        <v>6.8493150684931505</v>
+      </c>
+      <c r="M32" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="6">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L32" s="44">
-        <f t="shared" si="5"/>
-        <v>6.8493150684931505</v>
-      </c>
-      <c r="M32" s="6">
-        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="N32" s="5"/>
@@ -2276,39 +2276,39 @@
         <v>43816</v>
       </c>
       <c r="B33" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
       <c r="C33" s="38"/>
       <c r="D33" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
       <c r="G33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J33" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L33" s="44">
+        <f t="shared" si="6"/>
+        <v>6.9444444444444446</v>
+      </c>
+      <c r="M33" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="6">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L33" s="44">
-        <f t="shared" si="5"/>
-        <v>6.9444444444444446</v>
-      </c>
-      <c r="M33" s="6">
-        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="N33" s="5"/>
@@ -2326,39 +2326,39 @@
         <v>43817</v>
       </c>
       <c r="B34" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E34" s="38"/>
       <c r="F34" s="38"/>
       <c r="G34" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6">
-        <f>$R$1</f>
+        <f t="shared" ref="I34:I65" si="8">$R$1</f>
         <v>500</v>
       </c>
       <c r="J34" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L34" s="44">
+        <f t="shared" si="6"/>
+        <v>7.042253521126761</v>
+      </c>
+      <c r="M34" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="6">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L34" s="44">
-        <f t="shared" si="5"/>
-        <v>7.042253521126761</v>
-      </c>
-      <c r="M34" s="6">
-        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="N34" s="5"/>
@@ -2376,39 +2376,39 @@
         <v>43818</v>
       </c>
       <c r="B35" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="C35" s="39"/>
       <c r="D35" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E35" s="39"/>
       <c r="F35" s="39"/>
       <c r="G35" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J35" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K35" s="9">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L35" s="46">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L35" s="46">
-        <f t="shared" si="5"/>
         <v>7.1428571428571432</v>
       </c>
       <c r="M35" s="9">
-        <f t="shared" ref="M35:M66" si="7">IF(D35="Y",M34-1,M34)</f>
+        <f t="shared" ref="M35:M66" si="9">IF(D35="Y",M34-1,M34)</f>
         <v>70</v>
       </c>
       <c r="N35" s="8"/>
@@ -2426,39 +2426,39 @@
         <v>43819</v>
       </c>
       <c r="B36" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="C36" s="39"/>
       <c r="D36" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39"/>
       <c r="G36" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J36" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K36" s="9">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L36" s="46">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L36" s="46">
-        <f t="shared" si="5"/>
         <v>7.2463768115942031</v>
       </c>
       <c r="M36" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>69</v>
       </c>
       <c r="N36" s="8"/>
@@ -2476,39 +2476,39 @@
         <v>43820</v>
       </c>
       <c r="B37" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
       <c r="C37" s="38"/>
       <c r="D37" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E37" s="38"/>
       <c r="F37" s="38"/>
       <c r="G37" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J37" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K37" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L37" s="44">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L37" s="44">
-        <f t="shared" si="5"/>
         <v>7.3529411764705879</v>
       </c>
       <c r="M37" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="N37" s="5"/>
@@ -2526,39 +2526,39 @@
         <v>43821</v>
       </c>
       <c r="B38" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
       <c r="C38" s="38"/>
       <c r="D38" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="38"/>
       <c r="G38" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J38" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K38" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L38" s="44">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L38" s="44">
-        <f t="shared" si="5"/>
         <v>7.4626865671641793</v>
       </c>
       <c r="M38" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>67</v>
       </c>
       <c r="N38" s="5"/>
@@ -2576,39 +2576,39 @@
         <v>43822</v>
       </c>
       <c r="B39" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Monday</v>
       </c>
       <c r="C39" s="38"/>
       <c r="D39" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
       <c r="G39" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J39" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K39" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L39" s="44">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L39" s="44">
-        <f t="shared" si="5"/>
         <v>7.5757575757575761</v>
       </c>
       <c r="M39" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>66</v>
       </c>
       <c r="N39" s="5"/>
@@ -2626,39 +2626,39 @@
         <v>43823</v>
       </c>
       <c r="B40" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
       <c r="C40" s="38"/>
       <c r="D40" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="38"/>
       <c r="G40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J40" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K40" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L40" s="44">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L40" s="44">
-        <f t="shared" si="5"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="M40" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="N40" s="5"/>
@@ -2676,39 +2676,39 @@
         <v>43824</v>
       </c>
       <c r="B41" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="C41" s="38"/>
       <c r="D41" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="38"/>
       <c r="G41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J41" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K41" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L41" s="44">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L41" s="44">
-        <f t="shared" si="5"/>
         <v>7.8125</v>
       </c>
       <c r="M41" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="N41" s="5"/>
@@ -2726,39 +2726,39 @@
         <v>43825</v>
       </c>
       <c r="B42" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="C42" s="39"/>
       <c r="D42" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E42" s="39"/>
       <c r="F42" s="39"/>
       <c r="G42" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J42" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K42" s="9">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L42" s="46">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L42" s="46">
-        <f t="shared" si="5"/>
         <v>7.9365079365079367</v>
       </c>
       <c r="M42" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
       <c r="N42" s="8"/>
@@ -2776,39 +2776,39 @@
         <v>43826</v>
       </c>
       <c r="B43" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="C43" s="39"/>
       <c r="D43" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
       <c r="G43" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H43" s="9"/>
       <c r="I43" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J43" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K43" s="9">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L43" s="46">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L43" s="46">
-        <f t="shared" si="5"/>
         <v>8.064516129032258</v>
       </c>
       <c r="M43" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
       <c r="N43" s="8"/>
@@ -2826,39 +2826,39 @@
         <v>43827</v>
       </c>
       <c r="B44" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
       <c r="C44" s="38"/>
       <c r="D44" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
       <c r="G44" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J44" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K44" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L44" s="44">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L44" s="44">
-        <f t="shared" si="5"/>
         <v>8.1967213114754092</v>
       </c>
       <c r="M44" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
       <c r="N44" s="5"/>
@@ -2876,39 +2876,39 @@
         <v>43828</v>
       </c>
       <c r="B45" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
       <c r="C45" s="38"/>
       <c r="D45" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
       <c r="G45" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J45" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K45" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L45" s="44">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L45" s="44">
-        <f t="shared" si="5"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="M45" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="N45" s="5"/>
@@ -2926,39 +2926,39 @@
         <v>43829</v>
       </c>
       <c r="B46" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Monday</v>
       </c>
       <c r="C46" s="38"/>
       <c r="D46" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E46" s="38"/>
       <c r="F46" s="38"/>
       <c r="G46" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J46" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K46" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L46" s="44">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L46" s="44">
-        <f t="shared" si="5"/>
         <v>8.4745762711864412</v>
       </c>
       <c r="M46" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>59</v>
       </c>
       <c r="N46" s="5"/>
@@ -2976,39 +2976,39 @@
         <v>43830</v>
       </c>
       <c r="B47" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E47" s="38"/>
       <c r="F47" s="38"/>
       <c r="G47" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J47" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K47" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L47" s="44">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L47" s="44">
-        <f t="shared" si="5"/>
         <v>8.6206896551724146</v>
       </c>
       <c r="M47" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
       <c r="N47" s="5"/>
@@ -3026,39 +3026,39 @@
         <v>43831</v>
       </c>
       <c r="B48" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="C48" s="38"/>
       <c r="D48" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="38"/>
       <c r="G48" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J48" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K48" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L48" s="44">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L48" s="44">
-        <f t="shared" si="5"/>
         <v>8.7719298245614041</v>
       </c>
       <c r="M48" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
       <c r="N48" s="5"/>
@@ -3076,39 +3076,39 @@
         <v>43832</v>
       </c>
       <c r="B49" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="C49" s="39"/>
       <c r="D49" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E49" s="39"/>
       <c r="F49" s="39"/>
       <c r="G49" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J49" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K49" s="9">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L49" s="46">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L49" s="46">
-        <f t="shared" si="5"/>
         <v>8.9285714285714288</v>
       </c>
       <c r="M49" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
       <c r="N49" s="8"/>
@@ -3126,39 +3126,39 @@
         <v>43833</v>
       </c>
       <c r="B50" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="C50" s="39"/>
       <c r="D50" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E50" s="39"/>
       <c r="F50" s="39"/>
       <c r="G50" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J50" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K50" s="9">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L50" s="46">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L50" s="46">
-        <f t="shared" si="5"/>
         <v>9.0909090909090917</v>
       </c>
       <c r="M50" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
       <c r="N50" s="8"/>
@@ -3176,39 +3176,39 @@
         <v>43834</v>
       </c>
       <c r="B51" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
       <c r="C51" s="38"/>
       <c r="D51" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="38"/>
       <c r="G51" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J51" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K51" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L51" s="44">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L51" s="44">
-        <f t="shared" si="5"/>
         <v>9.2592592592592595</v>
       </c>
       <c r="M51" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="N51" s="5"/>
@@ -3226,39 +3226,39 @@
         <v>43835</v>
       </c>
       <c r="B52" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
       <c r="C52" s="38"/>
       <c r="D52" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E52" s="38"/>
       <c r="F52" s="38"/>
       <c r="G52" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J52" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K52" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L52" s="44">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L52" s="44">
-        <f t="shared" si="5"/>
         <v>9.433962264150944</v>
       </c>
       <c r="M52" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>53</v>
       </c>
       <c r="N52" s="5"/>
@@ -3276,39 +3276,39 @@
         <v>43836</v>
       </c>
       <c r="B53" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Monday</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E53" s="38"/>
       <c r="F53" s="38"/>
       <c r="G53" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J53" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K53" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L53" s="44">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L53" s="44">
-        <f t="shared" si="5"/>
         <v>9.615384615384615</v>
       </c>
       <c r="M53" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>52</v>
       </c>
       <c r="N53" s="5"/>
@@ -3326,39 +3326,39 @@
         <v>43837</v>
       </c>
       <c r="B54" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="38"/>
       <c r="G54" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J54" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K54" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L54" s="44">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L54" s="44">
-        <f t="shared" si="5"/>
         <v>9.8039215686274517</v>
       </c>
       <c r="M54" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="N54" s="5"/>
@@ -3376,39 +3376,39 @@
         <v>43838</v>
       </c>
       <c r="B55" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="C55" s="38"/>
       <c r="D55" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E55" s="38"/>
       <c r="F55" s="38"/>
       <c r="G55" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J55" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K55" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L55" s="44">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L55" s="44">
-        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="M55" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="N55" s="5"/>
@@ -3426,39 +3426,39 @@
         <v>43839</v>
       </c>
       <c r="B56" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="C56" s="39"/>
       <c r="D56" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E56" s="39"/>
       <c r="F56" s="39"/>
       <c r="G56" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J56" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K56" s="9">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L56" s="46">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L56" s="46">
-        <f t="shared" si="5"/>
         <v>10.204081632653061</v>
       </c>
       <c r="M56" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="N56" s="8"/>
@@ -3476,39 +3476,39 @@
         <v>43840</v>
       </c>
       <c r="B57" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="C57" s="39"/>
       <c r="D57" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J57" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K57" s="9">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L57" s="46">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L57" s="46">
-        <f t="shared" si="5"/>
         <v>10.416666666666666</v>
       </c>
       <c r="M57" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="N57" s="8"/>
@@ -3526,39 +3526,39 @@
         <v>43841</v>
       </c>
       <c r="B58" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
       <c r="C58" s="38"/>
       <c r="D58" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="38"/>
       <c r="G58" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J58" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K58" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L58" s="44">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L58" s="44">
-        <f t="shared" si="5"/>
         <v>10.638297872340425</v>
       </c>
       <c r="M58" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
       <c r="N58" s="5"/>
@@ -3576,39 +3576,39 @@
         <v>43842</v>
       </c>
       <c r="B59" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
       <c r="C59" s="38"/>
       <c r="D59" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="38"/>
       <c r="G59" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J59" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K59" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L59" s="44">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L59" s="44">
-        <f t="shared" si="5"/>
         <v>10.869565217391305</v>
       </c>
       <c r="M59" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="N59" s="5"/>
@@ -3626,39 +3626,39 @@
         <v>43843</v>
       </c>
       <c r="B60" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Monday</v>
       </c>
       <c r="C60" s="38"/>
       <c r="D60" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E60" s="38"/>
       <c r="F60" s="38"/>
       <c r="G60" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J60" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K60" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L60" s="44">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L60" s="44">
-        <f t="shared" si="5"/>
         <v>11.111111111111111</v>
       </c>
       <c r="M60" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="N60" s="5"/>
@@ -3676,39 +3676,39 @@
         <v>43844</v>
       </c>
       <c r="B61" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
       <c r="C61" s="38"/>
       <c r="D61" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="38"/>
       <c r="G61" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J61" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K61" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L61" s="44">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L61" s="44">
-        <f t="shared" si="5"/>
         <v>11.363636363636363</v>
       </c>
       <c r="M61" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="N61" s="5"/>
@@ -3726,39 +3726,39 @@
         <v>43845</v>
       </c>
       <c r="B62" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="C62" s="38"/>
       <c r="D62" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="38"/>
       <c r="G62" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J62" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K62" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L62" s="44">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L62" s="44">
-        <f t="shared" si="5"/>
         <v>11.627906976744185</v>
       </c>
       <c r="M62" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="N62" s="5"/>
@@ -3776,39 +3776,39 @@
         <v>43846</v>
       </c>
       <c r="B63" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="C63" s="39"/>
       <c r="D63" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E63" s="39"/>
       <c r="F63" s="39"/>
       <c r="G63" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J63" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K63" s="9">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L63" s="46">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L63" s="46">
-        <f t="shared" si="5"/>
         <v>11.904761904761905</v>
       </c>
       <c r="M63" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="N63" s="8"/>
@@ -3826,39 +3826,39 @@
         <v>43847</v>
       </c>
       <c r="B64" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="C64" s="39"/>
       <c r="D64" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E64" s="39"/>
       <c r="F64" s="39"/>
       <c r="G64" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J64" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K64" s="9">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L64" s="46">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L64" s="46">
-        <f t="shared" si="5"/>
         <v>12.195121951219512</v>
       </c>
       <c r="M64" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="N64" s="8"/>
@@ -3876,39 +3876,39 @@
         <v>43848</v>
       </c>
       <c r="B65" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
       <c r="C65" s="38"/>
       <c r="D65" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E65" s="38"/>
       <c r="F65" s="38"/>
       <c r="G65" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J65" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K65" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L65" s="44">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L65" s="44">
-        <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
       <c r="M65" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="N65" s="5"/>
@@ -3926,39 +3926,39 @@
         <v>43849</v>
       </c>
       <c r="B66" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
       <c r="C66" s="38"/>
       <c r="D66" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="E66" s="38"/>
       <c r="F66" s="38"/>
       <c r="G66" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6">
-        <f>$R$1</f>
+        <f t="shared" ref="I66:I97" si="10">$R$1</f>
         <v>500</v>
       </c>
       <c r="J66" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K66" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L66" s="44">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L66" s="44">
-        <f t="shared" si="5"/>
         <v>12.820512820512821</v>
       </c>
       <c r="M66" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="N66" s="5"/>
@@ -3976,39 +3976,39 @@
         <v>43850</v>
       </c>
       <c r="B67" s="11" t="str">
-        <f t="shared" ref="B67:B104" si="8">TEXT(A67,"dddd")</f>
+        <f t="shared" ref="B67:B104" si="11">TEXT(A67,"dddd")</f>
         <v>Monday</v>
       </c>
       <c r="C67" s="38"/>
       <c r="D67" s="30" t="str">
-        <f t="shared" ref="D67:D104" si="9">IF(OR(B67="Zaterdag",B67="Zondag",C67&lt;&gt;""),"N","Y")</f>
+        <f t="shared" ref="D67:D104" si="12">IF(OR(B67="Zaterdag",B67="Zondag",C67&lt;&gt;""),"N","Y")</f>
         <v>Y</v>
       </c>
       <c r="E67" s="38"/>
       <c r="F67" s="38"/>
       <c r="G67" s="6">
-        <f t="shared" ref="G67:G104" si="10">F67-E67</f>
+        <f t="shared" ref="G67:G104" si="13">F67-E67</f>
         <v>0</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J67" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K67" s="6">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L67" s="44">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="L67" s="44">
-        <f t="shared" si="5"/>
         <v>13.157894736842104</v>
       </c>
       <c r="M67" s="6">
-        <f t="shared" ref="M67:M98" si="11">IF(D67="Y",M66-1,M66)</f>
+        <f t="shared" ref="M67:M98" si="14">IF(D67="Y",M66-1,M66)</f>
         <v>38</v>
       </c>
       <c r="N67" s="5"/>
@@ -4026,39 +4026,39 @@
         <v>43851</v>
       </c>
       <c r="B68" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Tuesday</v>
       </c>
       <c r="C68" s="38"/>
       <c r="D68" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E68" s="38"/>
       <c r="F68" s="38"/>
       <c r="G68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J68" s="42">
-        <f t="shared" ref="J68:J104" si="12">G68/$R$1</f>
+        <f t="shared" ref="J68:J104" si="15">G68/$R$1</f>
         <v>0</v>
       </c>
       <c r="K68" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="L68" s="44">
-        <f t="shared" ref="L68:L104" si="13">K67/M68</f>
+        <f t="shared" ref="L68:L104" si="16">K67/M68</f>
         <v>13.513513513513514</v>
       </c>
       <c r="M68" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="N68" s="5"/>
@@ -4076,39 +4076,39 @@
         <v>43852</v>
       </c>
       <c r="B69" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Wednesday</v>
       </c>
       <c r="C69" s="38"/>
       <c r="D69" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38"/>
       <c r="G69" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J69" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K69" s="6">
-        <f t="shared" ref="K69:K104" si="14">K68-G69</f>
+        <f t="shared" ref="K69:K104" si="17">K68-G69</f>
         <v>500</v>
       </c>
       <c r="L69" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>13.888888888888889</v>
       </c>
       <c r="M69" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>36</v>
       </c>
       <c r="N69" s="5"/>
@@ -4126,39 +4126,39 @@
         <v>43853</v>
       </c>
       <c r="B70" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Thursday</v>
       </c>
       <c r="C70" s="39"/>
       <c r="D70" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E70" s="39"/>
       <c r="F70" s="39"/>
       <c r="G70" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J70" s="45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K70" s="9">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L70" s="46">
+        <f t="shared" si="16"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="M70" s="9">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L70" s="46">
-        <f t="shared" si="13"/>
-        <v>14.285714285714286</v>
-      </c>
-      <c r="M70" s="9">
-        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="N70" s="8"/>
@@ -4176,39 +4176,39 @@
         <v>43854</v>
       </c>
       <c r="B71" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Friday</v>
       </c>
       <c r="C71" s="39"/>
       <c r="D71" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E71" s="39"/>
       <c r="F71" s="39"/>
       <c r="G71" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J71" s="45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K71" s="9">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L71" s="46">
+        <f t="shared" si="16"/>
+        <v>14.705882352941176</v>
+      </c>
+      <c r="M71" s="9">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L71" s="46">
-        <f t="shared" si="13"/>
-        <v>14.705882352941176</v>
-      </c>
-      <c r="M71" s="9">
-        <f t="shared" si="11"/>
         <v>34</v>
       </c>
       <c r="N71" s="8"/>
@@ -4226,39 +4226,39 @@
         <v>43855</v>
       </c>
       <c r="B72" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Saturday</v>
       </c>
       <c r="C72" s="38"/>
       <c r="D72" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E72" s="38"/>
       <c r="F72" s="38"/>
       <c r="G72" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J72" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K72" s="6">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L72" s="44">
+        <f t="shared" si="16"/>
+        <v>15.151515151515152</v>
+      </c>
+      <c r="M72" s="6">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L72" s="44">
-        <f t="shared" si="13"/>
-        <v>15.151515151515152</v>
-      </c>
-      <c r="M72" s="6">
-        <f t="shared" si="11"/>
         <v>33</v>
       </c>
       <c r="N72" s="5"/>
@@ -4276,39 +4276,39 @@
         <v>43856</v>
       </c>
       <c r="B73" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Sunday</v>
       </c>
       <c r="C73" s="38"/>
       <c r="D73" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="38"/>
       <c r="G73" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J73" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K73" s="6">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L73" s="44">
+        <f t="shared" si="16"/>
+        <v>15.625</v>
+      </c>
+      <c r="M73" s="6">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L73" s="44">
-        <f t="shared" si="13"/>
-        <v>15.625</v>
-      </c>
-      <c r="M73" s="6">
-        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="N73" s="5"/>
@@ -4326,39 +4326,39 @@
         <v>43857</v>
       </c>
       <c r="B74" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Monday</v>
       </c>
       <c r="C74" s="38"/>
       <c r="D74" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E74" s="38"/>
       <c r="F74" s="38"/>
       <c r="G74" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J74" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K74" s="6">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L74" s="44">
+        <f t="shared" si="16"/>
+        <v>16.129032258064516</v>
+      </c>
+      <c r="M74" s="6">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L74" s="44">
-        <f t="shared" si="13"/>
-        <v>16.129032258064516</v>
-      </c>
-      <c r="M74" s="6">
-        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="N74" s="5"/>
@@ -4376,39 +4376,39 @@
         <v>43858</v>
       </c>
       <c r="B75" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Tuesday</v>
       </c>
       <c r="C75" s="38"/>
       <c r="D75" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E75" s="38"/>
       <c r="F75" s="38"/>
       <c r="G75" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J75" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K75" s="6">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L75" s="44">
+        <f t="shared" si="16"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="M75" s="6">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L75" s="44">
-        <f t="shared" si="13"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="M75" s="6">
-        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="N75" s="26"/>
@@ -4426,39 +4426,39 @@
         <v>43859</v>
       </c>
       <c r="B76" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Wednesday</v>
       </c>
       <c r="C76" s="38"/>
       <c r="D76" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E76" s="38"/>
       <c r="F76" s="38"/>
       <c r="G76" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J76" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K76" s="6">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L76" s="44">
+        <f t="shared" si="16"/>
+        <v>17.241379310344829</v>
+      </c>
+      <c r="M76" s="6">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L76" s="44">
-        <f t="shared" si="13"/>
-        <v>17.241379310344829</v>
-      </c>
-      <c r="M76" s="6">
-        <f t="shared" si="11"/>
         <v>29</v>
       </c>
       <c r="N76" s="5"/>
@@ -4476,39 +4476,39 @@
         <v>43860</v>
       </c>
       <c r="B77" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Thursday</v>
       </c>
       <c r="C77" s="39"/>
       <c r="D77" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E77" s="39"/>
       <c r="F77" s="39"/>
       <c r="G77" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H77" s="9"/>
       <c r="I77" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J77" s="45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K77" s="9">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L77" s="46">
+        <f t="shared" si="16"/>
+        <v>17.857142857142858</v>
+      </c>
+      <c r="M77" s="9">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L77" s="46">
-        <f t="shared" si="13"/>
-        <v>17.857142857142858</v>
-      </c>
-      <c r="M77" s="9">
-        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="N77" s="8"/>
@@ -4526,39 +4526,39 @@
         <v>43861</v>
       </c>
       <c r="B78" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Friday</v>
       </c>
       <c r="C78" s="39"/>
       <c r="D78" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E78" s="39"/>
       <c r="F78" s="39"/>
       <c r="G78" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J78" s="45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K78" s="9">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L78" s="46">
+        <f t="shared" si="16"/>
+        <v>18.518518518518519</v>
+      </c>
+      <c r="M78" s="9">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L78" s="46">
-        <f t="shared" si="13"/>
-        <v>18.518518518518519</v>
-      </c>
-      <c r="M78" s="9">
-        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="N78" s="8"/>
@@ -4576,39 +4576,39 @@
         <v>43862</v>
       </c>
       <c r="B79" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Saturday</v>
       </c>
       <c r="C79" s="38"/>
       <c r="D79" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E79" s="38"/>
       <c r="F79" s="38"/>
       <c r="G79" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H79" s="41"/>
       <c r="I79" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J79" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K79" s="6">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L79" s="43">
+        <f t="shared" si="16"/>
+        <v>19.23076923076923</v>
+      </c>
+      <c r="M79" s="48">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L79" s="43">
-        <f t="shared" si="13"/>
-        <v>19.23076923076923</v>
-      </c>
-      <c r="M79" s="48">
-        <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="N79" s="20"/>
@@ -4626,39 +4626,39 @@
         <v>43863</v>
       </c>
       <c r="B80" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Sunday</v>
       </c>
       <c r="C80" s="38"/>
       <c r="D80" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E80" s="38"/>
       <c r="F80" s="38"/>
       <c r="G80" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H80" s="41"/>
       <c r="I80" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J80" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K80" s="6">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L80" s="43">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="M80" s="48">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L80" s="43">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-      <c r="M80" s="48">
-        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="N80" s="20"/>
@@ -4676,39 +4676,39 @@
         <v>43864</v>
       </c>
       <c r="B81" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Monday</v>
       </c>
       <c r="C81" s="38"/>
       <c r="D81" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E81" s="38"/>
       <c r="F81" s="38"/>
       <c r="G81" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J81" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K81" s="6">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L81" s="44">
+        <f t="shared" si="16"/>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="M81" s="6">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L81" s="44">
-        <f t="shared" si="13"/>
-        <v>20.833333333333332</v>
-      </c>
-      <c r="M81" s="6">
-        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="N81" s="26"/>
@@ -4726,39 +4726,39 @@
         <v>43865</v>
       </c>
       <c r="B82" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Tuesday</v>
       </c>
       <c r="C82" s="38"/>
       <c r="D82" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E82" s="38"/>
       <c r="F82" s="38"/>
       <c r="G82" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J82" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K82" s="6">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L82" s="44">
+        <f t="shared" si="16"/>
+        <v>21.739130434782609</v>
+      </c>
+      <c r="M82" s="6">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L82" s="44">
-        <f t="shared" si="13"/>
-        <v>21.739130434782609</v>
-      </c>
-      <c r="M82" s="6">
-        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="N82" s="5"/>
@@ -4776,39 +4776,39 @@
         <v>43866</v>
       </c>
       <c r="B83" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Wednesday</v>
       </c>
       <c r="C83" s="38"/>
       <c r="D83" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="38"/>
       <c r="G83" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J83" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K83" s="6">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L83" s="44">
+        <f t="shared" si="16"/>
+        <v>22.727272727272727</v>
+      </c>
+      <c r="M83" s="6">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L83" s="44">
-        <f t="shared" si="13"/>
-        <v>22.727272727272727</v>
-      </c>
-      <c r="M83" s="6">
-        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="N83" s="5"/>
@@ -4826,39 +4826,39 @@
         <v>43867</v>
       </c>
       <c r="B84" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Thursday</v>
       </c>
       <c r="C84" s="39"/>
       <c r="D84" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E84" s="39"/>
       <c r="F84" s="39"/>
       <c r="G84" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H84" s="49"/>
       <c r="I84" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J84" s="45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K84" s="9">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L84" s="46">
+        <f t="shared" si="16"/>
+        <v>23.80952380952381</v>
+      </c>
+      <c r="M84" s="9">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L84" s="46">
-        <f t="shared" si="13"/>
-        <v>23.80952380952381</v>
-      </c>
-      <c r="M84" s="9">
-        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="N84" s="21"/>
@@ -4876,39 +4876,39 @@
         <v>43868</v>
       </c>
       <c r="B85" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Friday</v>
       </c>
       <c r="C85" s="39"/>
       <c r="D85" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E85" s="39"/>
       <c r="F85" s="39"/>
       <c r="G85" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H85" s="49"/>
       <c r="I85" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J85" s="45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K85" s="9">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L85" s="46">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="M85" s="9">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L85" s="46">
-        <f t="shared" si="13"/>
-        <v>25</v>
-      </c>
-      <c r="M85" s="9">
-        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="N85" s="21"/>
@@ -4926,39 +4926,39 @@
         <v>43869</v>
       </c>
       <c r="B86" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Saturday</v>
       </c>
       <c r="C86" s="38"/>
       <c r="D86" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E86" s="38"/>
       <c r="F86" s="38"/>
       <c r="G86" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H86" s="41"/>
       <c r="I86" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J86" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K86" s="6">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L86" s="43">
+        <f t="shared" si="16"/>
+        <v>26.315789473684209</v>
+      </c>
+      <c r="M86" s="48">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L86" s="43">
-        <f t="shared" si="13"/>
-        <v>26.315789473684209</v>
-      </c>
-      <c r="M86" s="48">
-        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="N86" s="20"/>
@@ -4976,39 +4976,39 @@
         <v>43870</v>
       </c>
       <c r="B87" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Sunday</v>
       </c>
       <c r="C87" s="38"/>
       <c r="D87" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E87" s="38"/>
       <c r="F87" s="38"/>
       <c r="G87" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J87" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K87" s="6">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L87" s="44">
+        <f t="shared" si="16"/>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="M87" s="6">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L87" s="44">
-        <f t="shared" si="13"/>
-        <v>27.777777777777779</v>
-      </c>
-      <c r="M87" s="6">
-        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="N87" s="5"/>
@@ -5026,39 +5026,39 @@
         <v>43871</v>
       </c>
       <c r="B88" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Monday</v>
       </c>
       <c r="C88" s="38"/>
       <c r="D88" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="38"/>
       <c r="G88" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H88" s="6"/>
       <c r="I88" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J88" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K88" s="6">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L88" s="44">
+        <f t="shared" si="16"/>
+        <v>29.411764705882351</v>
+      </c>
+      <c r="M88" s="6">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L88" s="44">
-        <f t="shared" si="13"/>
-        <v>29.411764705882351</v>
-      </c>
-      <c r="M88" s="6">
-        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="N88" s="5"/>
@@ -5076,39 +5076,39 @@
         <v>43872</v>
       </c>
       <c r="B89" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Tuesday</v>
       </c>
       <c r="C89" s="38"/>
       <c r="D89" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E89" s="38"/>
       <c r="F89" s="38"/>
       <c r="G89" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H89" s="6"/>
       <c r="I89" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J89" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K89" s="6">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L89" s="44">
+        <f t="shared" si="16"/>
+        <v>31.25</v>
+      </c>
+      <c r="M89" s="6">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L89" s="44">
-        <f t="shared" si="13"/>
-        <v>31.25</v>
-      </c>
-      <c r="M89" s="6">
-        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="N89" s="5"/>
@@ -5126,39 +5126,39 @@
         <v>43873</v>
       </c>
       <c r="B90" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Wednesday</v>
       </c>
       <c r="C90" s="38"/>
       <c r="D90" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E90" s="38"/>
       <c r="F90" s="38"/>
       <c r="G90" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J90" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K90" s="6">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L90" s="44">
+        <f t="shared" si="16"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="M90" s="6">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L90" s="44">
-        <f t="shared" si="13"/>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="M90" s="6">
-        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="N90" s="5"/>
@@ -5176,39 +5176,39 @@
         <v>43874</v>
       </c>
       <c r="B91" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Thursday</v>
       </c>
       <c r="C91" s="39"/>
       <c r="D91" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E91" s="39"/>
       <c r="F91" s="39"/>
       <c r="G91" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H91" s="49"/>
       <c r="I91" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J91" s="45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K91" s="9">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L91" s="46">
+        <f t="shared" si="16"/>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="M91" s="9">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L91" s="46">
-        <f t="shared" si="13"/>
-        <v>35.714285714285715</v>
-      </c>
-      <c r="M91" s="9">
-        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="N91" s="25"/>
@@ -5226,39 +5226,39 @@
         <v>43875</v>
       </c>
       <c r="B92" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Friday</v>
       </c>
       <c r="C92" s="39"/>
       <c r="D92" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E92" s="39"/>
       <c r="F92" s="39"/>
       <c r="G92" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H92" s="49"/>
       <c r="I92" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J92" s="45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K92" s="9">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L92" s="46">
+        <f t="shared" si="16"/>
+        <v>38.46153846153846</v>
+      </c>
+      <c r="M92" s="9">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L92" s="46">
-        <f t="shared" si="13"/>
-        <v>38.46153846153846</v>
-      </c>
-      <c r="M92" s="9">
-        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="N92" s="21"/>
@@ -5276,39 +5276,39 @@
         <v>43876</v>
       </c>
       <c r="B93" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Saturday</v>
       </c>
       <c r="C93" s="38"/>
       <c r="D93" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38"/>
       <c r="G93" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H93" s="6"/>
       <c r="I93" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J93" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K93" s="6">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L93" s="43">
+        <f t="shared" si="16"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="M93" s="1">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L93" s="43">
-        <f t="shared" si="13"/>
-        <v>41.666666666666664</v>
-      </c>
-      <c r="M93" s="1">
-        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="N93" s="5"/>
@@ -5326,39 +5326,39 @@
         <v>43877</v>
       </c>
       <c r="B94" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Sunday</v>
       </c>
       <c r="C94" s="38"/>
       <c r="D94" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="38"/>
       <c r="G94" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H94" s="6"/>
       <c r="I94" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J94" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K94" s="6">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L94" s="43">
+        <f t="shared" si="16"/>
+        <v>45.454545454545453</v>
+      </c>
+      <c r="M94" s="1">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L94" s="43">
-        <f t="shared" si="13"/>
-        <v>45.454545454545453</v>
-      </c>
-      <c r="M94" s="1">
-        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="N94" s="5"/>
@@ -5376,39 +5376,39 @@
         <v>43878</v>
       </c>
       <c r="B95" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Monday</v>
       </c>
       <c r="C95" s="38"/>
       <c r="D95" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="38"/>
       <c r="G95" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H95" s="6"/>
       <c r="I95" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J95" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K95" s="6">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L95" s="43">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="M95" s="1">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L95" s="43">
-        <f t="shared" si="13"/>
-        <v>50</v>
-      </c>
-      <c r="M95" s="1">
-        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="N95" s="5"/>
@@ -5426,39 +5426,39 @@
         <v>43879</v>
       </c>
       <c r="B96" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Tuesday</v>
       </c>
       <c r="C96" s="38"/>
       <c r="D96" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="38"/>
       <c r="G96" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J96" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K96" s="6">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L96" s="43">
+        <f t="shared" si="16"/>
+        <v>55.555555555555557</v>
+      </c>
+      <c r="M96" s="1">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L96" s="43">
-        <f t="shared" si="13"/>
-        <v>55.555555555555557</v>
-      </c>
-      <c r="M96" s="1">
-        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="N96" s="20"/>
@@ -5476,39 +5476,39 @@
         <v>43880</v>
       </c>
       <c r="B97" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Wednesday</v>
       </c>
       <c r="C97" s="38"/>
       <c r="D97" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38"/>
       <c r="G97" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="J97" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K97" s="6">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L97" s="43">
+        <f t="shared" si="16"/>
+        <v>62.5</v>
+      </c>
+      <c r="M97" s="1">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L97" s="43">
-        <f t="shared" si="13"/>
-        <v>62.5</v>
-      </c>
-      <c r="M97" s="1">
-        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N97" s="19"/>
@@ -5526,39 +5526,39 @@
         <v>43881</v>
       </c>
       <c r="B98" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Thursday</v>
       </c>
       <c r="C98" s="8"/>
       <c r="D98" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H98" s="49"/>
       <c r="I98" s="9">
-        <f>$R$1</f>
+        <f t="shared" ref="I98:I104" si="18">$R$1</f>
         <v>500</v>
       </c>
       <c r="J98" s="45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K98" s="9">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="L98" s="46">
+        <f t="shared" si="16"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="M98" s="9">
         <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="L98" s="46">
-        <f t="shared" si="13"/>
-        <v>71.428571428571431</v>
-      </c>
-      <c r="M98" s="9">
-        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="O98" s="7"/>
@@ -5575,39 +5575,39 @@
         <v>43882</v>
       </c>
       <c r="B99" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Friday</v>
       </c>
       <c r="C99" s="39"/>
       <c r="D99" s="31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E99" s="39"/>
       <c r="F99" s="39"/>
       <c r="G99" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H99" s="49"/>
       <c r="I99" s="9">
-        <f>$R$1</f>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="J99" s="45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K99" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>500</v>
       </c>
       <c r="L99" s="46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>83.333333333333329</v>
       </c>
       <c r="M99" s="9">
-        <f t="shared" ref="M99:M104" si="15">IF(D99="Y",M98-1,M98)</f>
+        <f t="shared" ref="M99:M104" si="19">IF(D99="Y",M98-1,M98)</f>
         <v>6</v>
       </c>
       <c r="O99" s="7"/>
@@ -5624,39 +5624,39 @@
         <v>43883</v>
       </c>
       <c r="B100" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Saturday</v>
       </c>
       <c r="C100" s="38"/>
       <c r="D100" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E100" s="38"/>
       <c r="F100" s="38"/>
       <c r="G100" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H100" s="41"/>
       <c r="I100" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="J100" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K100" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>500</v>
       </c>
       <c r="L100" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="M100" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="N100" s="20"/>
@@ -5674,39 +5674,39 @@
         <v>43884</v>
       </c>
       <c r="B101" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Sunday</v>
       </c>
       <c r="C101" s="38"/>
       <c r="D101" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E101" s="38"/>
       <c r="F101" s="38"/>
       <c r="G101" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H101" s="41"/>
       <c r="I101" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="J101" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K101" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>500</v>
       </c>
       <c r="L101" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>125</v>
       </c>
       <c r="M101" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="N101" s="20"/>
@@ -5724,39 +5724,39 @@
         <v>43885</v>
       </c>
       <c r="B102" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Monday</v>
       </c>
       <c r="C102" s="38"/>
       <c r="D102" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E102" s="38"/>
       <c r="F102" s="38"/>
       <c r="G102" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H102" s="41"/>
       <c r="I102" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="J102" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K102" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>500</v>
       </c>
       <c r="L102" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>166.66666666666666</v>
       </c>
       <c r="M102" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="N102" s="20"/>
@@ -5774,39 +5774,39 @@
         <v>43886</v>
       </c>
       <c r="B103" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Tuesday</v>
       </c>
       <c r="C103" s="38"/>
       <c r="D103" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E103" s="38"/>
       <c r="F103" s="38"/>
       <c r="G103" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H103" s="41"/>
       <c r="I103" s="6">
-        <f>$R$1</f>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="J103" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K103" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>500</v>
       </c>
       <c r="L103" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>250</v>
       </c>
       <c r="M103" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="N103" s="20"/>
@@ -5824,39 +5824,39 @@
         <v>43887</v>
       </c>
       <c r="B104" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Wednesday</v>
       </c>
       <c r="C104" s="40"/>
       <c r="D104" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>Y</v>
       </c>
       <c r="E104" s="40"/>
       <c r="F104" s="40"/>
       <c r="G104" s="51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H104" s="50"/>
       <c r="I104" s="51">
-        <f>$R$1</f>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="J104" s="51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K104" s="51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>500</v>
       </c>
       <c r="L104" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>500</v>
       </c>
       <c r="M104" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="N104" s="22"/>
@@ -39318,6 +39318,7 @@
       <c r="N138" s="53"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="WR3+MUy1FETBpr9cyukls6DuDOlueDGTFPR+f9dFWbYrXXDsbIuTZFoPcXZIBIPWQiZEFuY/AvGGQrcVilhC6Q==" saltValue="iC7RET25P/WbidyPRBFgIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
